--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_9_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_9_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>388603.4811098331</v>
+        <v>386379.6661168802</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3784661.327378736</v>
+        <v>3784661.327378735</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>182.1597621753684</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>43.24599191834898</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>138.3792129943166</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>198.4832638918579</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>310.2757079128344</v>
+        <v>267.3231022671708</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1062,19 +1062,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>156.0665348042639</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>239.0906404773209</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>335.4789331224958</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>214.1242682761302</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -1341,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="T10" t="n">
-        <v>13.99728392830462</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1375,19 +1375,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>150.8667726701019</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>275.5352539810693</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>58.99909603740922</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>213.2914292846466</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.5464679952318</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1435,10 +1435,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>350.0159857422223</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1239525825597411</v>
+        <v>0.1239525825595429</v>
       </c>
       <c r="S13" t="n">
         <v>149.4787636104509</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>225.7890270789179</v>
+        <v>420.2416388900214</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>396.3387073014507</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>275.5352539810693</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1785,7 +1785,7 @@
         <v>134.3349485009931</v>
       </c>
       <c r="I16" t="n">
-        <v>73.67476174862001</v>
+        <v>73.67476174862017</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1239525825597411</v>
+        <v>0.1239525825595429</v>
       </c>
       <c r="S16" t="n">
         <v>149.4787636104509</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>298.1338486405711</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>377.1846335722699</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>396.3387073014507</v>
       </c>
       <c r="H17" t="n">
-        <v>275.5352539810693</v>
+        <v>275.5352539810694</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>58.99909603740922</v>
       </c>
       <c r="T17" t="n">
-        <v>213.2914292846466</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.5464679952318</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1239525825595358</v>
+        <v>0.1239525825595429</v>
       </c>
       <c r="S19" t="n">
         <v>149.4787636104509</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>140.8026775768955</v>
       </c>
       <c r="G20" t="n">
-        <v>270.8838006471377</v>
+        <v>396.3387073014507</v>
       </c>
       <c r="H20" t="n">
-        <v>275.5352539810693</v>
+        <v>275.5352539810694</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>58.99909603740922</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>213.2914292846466</v>
       </c>
       <c r="U20" t="n">
         <v>256.5464679952318</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1239525825595358</v>
+        <v>0.1239525825595429</v>
       </c>
       <c r="S22" t="n">
         <v>149.4787636104509</v>
@@ -2335,7 +2335,7 @@
         <v>396.3387073014507</v>
       </c>
       <c r="H23" t="n">
-        <v>275.5352539810693</v>
+        <v>275.5352539810694</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1239525825595358</v>
+        <v>0.1239525825595429</v>
       </c>
       <c r="S25" t="n">
         <v>149.4787636104509</v>
@@ -2566,13 +2566,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>327.583941056831</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>396.3387073014507</v>
       </c>
       <c r="H26" t="n">
-        <v>275.5352539810693</v>
+        <v>275.5352539810694</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>213.2914292846466</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.5464679952318</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>93.46809970762399</v>
       </c>
     </row>
     <row r="27">
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1239525825595358</v>
+        <v>0.1239525825595429</v>
       </c>
       <c r="S28" t="n">
         <v>149.4787636104509</v>
@@ -2797,7 +2797,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>54.54297419698145</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
@@ -2809,7 +2809,7 @@
         <v>396.3387073014507</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>92.83018449956059</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>213.2914292846466</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.5464679952318</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.1239525825595358</v>
+        <v>0.1239525825595429</v>
       </c>
       <c r="S31" t="n">
         <v>149.4787636104509</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3043,10 +3043,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>254.2407621535907</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>105.9336319286089</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.99909603740922</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>213.2914292846466</v>
       </c>
       <c r="U32" t="n">
-        <v>256.5464679952318</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.1239525825595358</v>
+        <v>0.1239525825595429</v>
       </c>
       <c r="S34" t="n">
         <v>149.4787636104509</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>147.8882135704716</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>417.8245888595776</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>396.3387073014507</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>275.5352539810694</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>58.99909603740922</v>
       </c>
       <c r="T35" t="n">
         <v>213.2914292846466</v>
@@ -3325,7 +3325,7 @@
         <v>256.5464679952318</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1239525825595358</v>
+        <v>0.1239525825595429</v>
       </c>
       <c r="S37" t="n">
         <v>149.4787636104509</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>107.7043874850585</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>275.5352539810694</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.99909603740922</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>213.2914292846466</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.5464679952318</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>390.0593610249851</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.1239525825597411</v>
+        <v>0.1239525825595429</v>
       </c>
       <c r="S40" t="n">
         <v>149.4787636104509</v>
@@ -3748,7 +3748,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.99909603740922</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>213.2914292846466</v>
@@ -3805,10 +3805,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>6.828132379777121</v>
       </c>
       <c r="Y41" t="n">
-        <v>377.2660337356558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>164.2192128704927</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.1239525825595358</v>
+        <v>0.1239525825595429</v>
       </c>
       <c r="S43" t="n">
         <v>149.4787636104509</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>147.8882135704717</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.3387073014507</v>
+        <v>4.034514933376611</v>
       </c>
       <c r="H44" t="n">
-        <v>275.5352539810693</v>
+        <v>275.5352539810694</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>256.5464679952318</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.1239525825595358</v>
+        <v>0.1239525825595429</v>
       </c>
       <c r="S46" t="n">
         <v>149.4787636104509</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1248.461663861405</v>
+        <v>1233.798538035544</v>
       </c>
       <c r="C2" t="n">
-        <v>1214.359595085233</v>
+        <v>805.2168637728128</v>
       </c>
       <c r="D2" t="n">
-        <v>1182.490214300081</v>
+        <v>376.6351895100811</v>
       </c>
       <c r="E2" t="n">
-        <v>1152.75587349878</v>
+        <v>346.9008487087803</v>
       </c>
       <c r="F2" t="n">
-        <v>724.8884439079882</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4345,7 +4345,7 @@
         <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4360,22 +4360,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1653.500609960873</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1653.500609960873</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V2" t="n">
-        <v>1290.883659894699</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="W2" t="n">
-        <v>1290.068609346137</v>
+        <v>1437.146076848872</v>
       </c>
       <c r="X2" t="n">
-        <v>1274.966549965852</v>
+        <v>1422.044017468586</v>
       </c>
       <c r="Y2" t="n">
-        <v>1270.720830305909</v>
+        <v>1417.798297808644</v>
       </c>
     </row>
     <row r="3">
@@ -4415,16 +4415,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>464.9019468393491</v>
+        <v>173.7206514241503</v>
       </c>
       <c r="C4" t="n">
-        <v>464.9019468393491</v>
+        <v>173.7206514241503</v>
       </c>
       <c r="D4" t="n">
-        <v>464.9019468393491</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>464.9019468393491</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>288.1948928011053</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4494,13 +4494,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U4" t="n">
-        <v>1496.695284735106</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="V4" t="n">
-        <v>1209.739776605537</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="W4" t="n">
-        <v>937.7133721918283</v>
+        <v>838.3506954956167</v>
       </c>
       <c r="X4" t="n">
-        <v>692.3216175252408</v>
+        <v>592.9589408290292</v>
       </c>
       <c r="Y4" t="n">
-        <v>464.9019468393491</v>
+        <v>365.5392701431375</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>548.3728793740404</v>
+        <v>153.8932738874814</v>
       </c>
       <c r="C5" t="n">
         <v>119.7912051113087</v>
@@ -4567,28 +4567,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="L5" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="M5" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="N5" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="O5" t="n">
         <v>874.0494664914149</v>
-      </c>
-      <c r="M5" t="n">
-        <v>874.0494664914149</v>
-      </c>
-      <c r="N5" t="n">
-        <v>874.0494664914149</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1294.102365436318</v>
       </c>
       <c r="P5" t="n">
         <v>1294.102365436318</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R5" t="n">
         <v>1697.183430080417</v>
@@ -4597,22 +4597,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>450.4214956153326</v>
       </c>
       <c r="X5" t="n">
-        <v>1382.958573559295</v>
+        <v>180.3981599919276</v>
       </c>
       <c r="Y5" t="n">
-        <v>974.6724498589482</v>
+        <v>176.1524403319851</v>
       </c>
     </row>
     <row r="6">
@@ -4637,13 +4637,13 @@
         <v>161.064410519212</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160836</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206596</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J6" t="n">
         <v>384.5656667282782</v>
@@ -4652,19 +4652,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q6" t="n">
         <v>1580.010651986078</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>372.3833729168607</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>199.8216614000857</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
@@ -4749,28 +4749,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U7" t="n">
-        <v>1113.00182921349</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V7" t="n">
-        <v>1113.00182921349</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W7" t="n">
-        <v>1113.00182921349</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X7" t="n">
-        <v>1113.00182921349</v>
+        <v>372.3833729168607</v>
       </c>
       <c r="Y7" t="n">
-        <v>1113.00182921349</v>
+        <v>372.3833729168607</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>173.3508218145016</v>
+        <v>389.6379614873604</v>
       </c>
       <c r="C8" t="n">
-        <v>139.2487530383289</v>
+        <v>355.5358927111877</v>
       </c>
       <c r="D8" t="n">
-        <v>107.3793722531775</v>
+        <v>323.6665119260363</v>
       </c>
       <c r="E8" t="n">
-        <v>77.64503145187676</v>
+        <v>293.9321711247355</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>270.1051455743473</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>270.1051455743473</v>
       </c>
       <c r="H8" t="n">
         <v>53.81800590148855</v>
@@ -4804,52 +4804,52 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>141.0418768474983</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>801.8819313892766</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>801.8819313892766</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>801.8819313892766</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>801.8819313892766</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2107.11942280532</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>1744.502472739146</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W8" t="n">
-        <v>1339.64701815018</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X8" t="n">
-        <v>920.5045547294905</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y8" t="n">
-        <v>512.2184310291439</v>
+        <v>815.9375319722682</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>714.2412710704069</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1375.081325612185</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1599.468199913098</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4989,7 +4989,7 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2648.6430051368</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="T10" t="n">
         <v>2634.504334502149</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1362.975771687061</v>
+        <v>1362.269123432238</v>
       </c>
       <c r="C11" t="n">
-        <v>924.8332988704842</v>
+        <v>924.1266506156612</v>
       </c>
       <c r="D11" t="n">
-        <v>924.8332988704842</v>
+        <v>488.2168657901057</v>
       </c>
       <c r="E11" t="n">
-        <v>491.0585540287794</v>
+        <v>488.2168657901057</v>
       </c>
       <c r="F11" t="n">
-        <v>491.0585540287794</v>
+        <v>60.34943619931342</v>
       </c>
       <c r="G11" t="n">
-        <v>338.6678745640299</v>
+        <v>60.34943619931342</v>
       </c>
       <c r="H11" t="n">
         <v>60.34943619931342</v>
@@ -5041,25 +5041,25 @@
         <v>99.83099308618802</v>
       </c>
       <c r="J11" t="n">
-        <v>187.6493787620627</v>
+        <v>187.6493787620626</v>
       </c>
       <c r="K11" t="n">
         <v>934.4736517285661</v>
       </c>
       <c r="L11" t="n">
-        <v>1681.29792469507</v>
+        <v>1435.656956938745</v>
       </c>
       <c r="M11" t="n">
-        <v>1862.981190885251</v>
+        <v>1617.340223128926</v>
       </c>
       <c r="N11" t="n">
-        <v>2047.604282266396</v>
+        <v>1801.963314510072</v>
       </c>
       <c r="O11" t="n">
-        <v>2221.938632163108</v>
+        <v>1976.297664406783</v>
       </c>
       <c r="P11" t="n">
-        <v>2370.728966432218</v>
+        <v>2125.087998675893</v>
       </c>
       <c r="Q11" t="n">
         <v>2783.322129145076</v>
@@ -5071,22 +5071,22 @@
         <v>2957.876763463237</v>
       </c>
       <c r="T11" t="n">
-        <v>2957.876763463237</v>
+        <v>2742.430875296928</v>
       </c>
       <c r="U11" t="n">
-        <v>2957.876763463237</v>
+        <v>2483.293028837098</v>
       </c>
       <c r="V11" t="n">
-        <v>2595.259813397064</v>
+        <v>2120.676078770924</v>
       </c>
       <c r="W11" t="n">
-        <v>2190.404358808097</v>
+        <v>1715.820624181957</v>
       </c>
       <c r="X11" t="n">
-        <v>1771.261895387408</v>
+        <v>1362.269123432238</v>
       </c>
       <c r="Y11" t="n">
-        <v>1362.975771687061</v>
+        <v>1362.269123432238</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>60.34943619931342</v>
       </c>
       <c r="I12" t="n">
-        <v>79.41014028942945</v>
+        <v>105.473813449887</v>
       </c>
       <c r="J12" t="n">
-        <v>131.7141691818103</v>
+        <v>482.3361673084801</v>
       </c>
       <c r="K12" t="n">
-        <v>316.719960075102</v>
+        <v>571.7320835487096</v>
       </c>
       <c r="L12" t="n">
-        <v>436.9238016013687</v>
+        <v>691.9359250749764</v>
       </c>
       <c r="M12" t="n">
-        <v>577.1960150135983</v>
+        <v>832.208138487206</v>
       </c>
       <c r="N12" t="n">
-        <v>721.1808165218519</v>
+        <v>976.1929399954596</v>
       </c>
       <c r="O12" t="n">
-        <v>852.8987801876511</v>
+        <v>1107.910903661259</v>
       </c>
       <c r="P12" t="n">
-        <v>1599.723053154155</v>
+        <v>1213.626181963867</v>
       </c>
       <c r="Q12" t="n">
-        <v>1670.390917082656</v>
+        <v>1553.218138988316</v>
       </c>
       <c r="R12" t="n">
         <v>1704.763315439303</v>
@@ -5178,22 +5178,22 @@
         <v>1120.482739782733</v>
       </c>
       <c r="C13" t="n">
-        <v>947.9210282659584</v>
+        <v>947.9210282659583</v>
       </c>
       <c r="D13" t="n">
-        <v>782.0430354674811</v>
+        <v>782.0430354674809</v>
       </c>
       <c r="E13" t="n">
-        <v>612.2850317182184</v>
+        <v>612.2850317182183</v>
       </c>
       <c r="F13" t="n">
-        <v>435.5779776799747</v>
+        <v>435.5779776799745</v>
       </c>
       <c r="G13" t="n">
-        <v>270.4602546332661</v>
+        <v>270.4602546332658</v>
       </c>
       <c r="H13" t="n">
-        <v>134.7683874605457</v>
+        <v>134.7683874605455</v>
       </c>
       <c r="I13" t="n">
         <v>60.34943619931342</v>
@@ -5208,22 +5208,22 @@
         <v>995.6377996871217</v>
       </c>
       <c r="M13" t="n">
-        <v>1527.875878805682</v>
+        <v>1408.218778852015</v>
       </c>
       <c r="N13" t="n">
-        <v>2041.158961354755</v>
+        <v>1921.501861401089</v>
       </c>
       <c r="O13" t="n">
-        <v>2526.430628211258</v>
+        <v>2406.773528257592</v>
       </c>
       <c r="P13" t="n">
-        <v>2930.071723632534</v>
+        <v>2810.414623678867</v>
       </c>
       <c r="Q13" t="n">
         <v>3017.471809965671</v>
       </c>
       <c r="R13" t="n">
-        <v>3017.346605336822</v>
+        <v>3017.346605336823</v>
       </c>
       <c r="S13" t="n">
         <v>2866.357955225256</v>
@@ -5235,7 +5235,7 @@
         <v>2344.094696397478</v>
       </c>
       <c r="V13" t="n">
-        <v>2057.139188267909</v>
+        <v>2057.139188267908</v>
       </c>
       <c r="W13" t="n">
         <v>1785.1127838542</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1830.856941889841</v>
+        <v>1358.88819777076</v>
       </c>
       <c r="C14" t="n">
-        <v>1830.856941889841</v>
+        <v>920.7457249541835</v>
       </c>
       <c r="D14" t="n">
-        <v>1394.947157064285</v>
+        <v>484.835940128628</v>
       </c>
       <c r="E14" t="n">
-        <v>1166.877432742146</v>
+        <v>60.34943619931342</v>
       </c>
       <c r="F14" t="n">
-        <v>739.0100031513539</v>
+        <v>60.34943619931342</v>
       </c>
       <c r="G14" t="n">
-        <v>338.6678745640299</v>
+        <v>60.34943619931342</v>
       </c>
       <c r="H14" t="n">
         <v>60.34943619931342</v>
@@ -5278,28 +5278,28 @@
         <v>99.83099308618802</v>
       </c>
       <c r="J14" t="n">
-        <v>187.6493787620627</v>
+        <v>622.9040662149805</v>
       </c>
       <c r="K14" t="n">
-        <v>934.4736517285661</v>
+        <v>1369.728339181484</v>
       </c>
       <c r="L14" t="n">
-        <v>1097.756173091715</v>
+        <v>1982.155742897339</v>
       </c>
       <c r="M14" t="n">
-        <v>1279.439439281897</v>
+        <v>2163.83900908752</v>
       </c>
       <c r="N14" t="n">
-        <v>1464.062530663042</v>
+        <v>2348.462100468666</v>
       </c>
       <c r="O14" t="n">
-        <v>2210.886803629546</v>
+        <v>2522.796450365377</v>
       </c>
       <c r="P14" t="n">
-        <v>2359.677137898655</v>
+        <v>2671.586784634487</v>
       </c>
       <c r="Q14" t="n">
-        <v>2952.476193898133</v>
+        <v>2783.322129145076</v>
       </c>
       <c r="R14" t="n">
         <v>3017.471809965671</v>
@@ -5314,16 +5314,16 @@
         <v>3017.471809965671</v>
       </c>
       <c r="V14" t="n">
-        <v>2654.854859899497</v>
+        <v>3017.471809965671</v>
       </c>
       <c r="W14" t="n">
-        <v>2249.99940531053</v>
+        <v>2612.616355376704</v>
       </c>
       <c r="X14" t="n">
-        <v>1830.856941889841</v>
+        <v>2193.473891956015</v>
       </c>
       <c r="Y14" t="n">
-        <v>1830.856941889841</v>
+        <v>1785.187768255668</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>105.473813449887</v>
       </c>
       <c r="J15" t="n">
-        <v>227.3240438348724</v>
+        <v>482.3361673084801</v>
       </c>
       <c r="K15" t="n">
-        <v>316.719960075102</v>
+        <v>571.7320835487096</v>
       </c>
       <c r="L15" t="n">
-        <v>436.9238016013687</v>
+        <v>691.9359250749764</v>
       </c>
       <c r="M15" t="n">
-        <v>577.1960150135983</v>
+        <v>832.208138487206</v>
       </c>
       <c r="N15" t="n">
-        <v>721.1808165218519</v>
+        <v>976.1929399954596</v>
       </c>
       <c r="O15" t="n">
-        <v>852.8987801876511</v>
+        <v>1107.910903661259</v>
       </c>
       <c r="P15" t="n">
-        <v>1599.723053154155</v>
+        <v>1213.626181963867</v>
       </c>
       <c r="Q15" t="n">
-        <v>1670.390917082656</v>
+        <v>1553.218138988316</v>
       </c>
       <c r="R15" t="n">
         <v>1704.763315439303</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.482739782733</v>
+        <v>1120.482739782734</v>
       </c>
       <c r="C16" t="n">
-        <v>947.9210282659584</v>
+        <v>947.9210282659586</v>
       </c>
       <c r="D16" t="n">
-        <v>782.0430354674811</v>
+        <v>782.0430354674813</v>
       </c>
       <c r="E16" t="n">
-        <v>612.2850317182184</v>
+        <v>612.2850317182185</v>
       </c>
       <c r="F16" t="n">
-        <v>435.5779776799747</v>
+        <v>435.5779776799748</v>
       </c>
       <c r="G16" t="n">
-        <v>270.4602546332661</v>
+        <v>270.4602546332662</v>
       </c>
       <c r="H16" t="n">
-        <v>134.7683874605457</v>
+        <v>134.7683874605459</v>
       </c>
       <c r="I16" t="n">
         <v>60.34943619931342</v>
@@ -5478,7 +5478,7 @@
         <v>1785.1127838542</v>
       </c>
       <c r="X16" t="n">
-        <v>1539.721029187612</v>
+        <v>1539.721029187613</v>
       </c>
       <c r="Y16" t="n">
         <v>1312.301358501721</v>
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1147.529883520751</v>
+        <v>1040.155304808497</v>
       </c>
       <c r="C17" t="n">
-        <v>1147.529883520751</v>
+        <v>739.010003151354</v>
       </c>
       <c r="D17" t="n">
-        <v>1147.529883520751</v>
+        <v>739.010003151354</v>
       </c>
       <c r="E17" t="n">
-        <v>766.5353041548221</v>
+        <v>739.010003151354</v>
       </c>
       <c r="F17" t="n">
-        <v>338.6678745640299</v>
+        <v>739.010003151354</v>
       </c>
       <c r="G17" t="n">
-        <v>338.6678745640299</v>
+        <v>338.66787456403</v>
       </c>
       <c r="H17" t="n">
         <v>60.34943619931342</v>
@@ -5521,7 +5521,7 @@
         <v>754.5210617750628</v>
       </c>
       <c r="L17" t="n">
-        <v>917.803583138212</v>
+        <v>917.8035831382119</v>
       </c>
       <c r="M17" t="n">
         <v>1099.486849328393</v>
@@ -5533,7 +5533,7 @@
         <v>1458.44429060625</v>
       </c>
       <c r="P17" t="n">
-        <v>2125.087998675892</v>
+        <v>2125.087998675893</v>
       </c>
       <c r="Q17" t="n">
         <v>2783.322129145076</v>
@@ -5545,22 +5545,22 @@
         <v>2957.876763463237</v>
       </c>
       <c r="T17" t="n">
-        <v>2742.430875296928</v>
+        <v>2957.876763463237</v>
       </c>
       <c r="U17" t="n">
-        <v>2742.430875296928</v>
+        <v>2698.738917003407</v>
       </c>
       <c r="V17" t="n">
-        <v>2379.813925230754</v>
+        <v>2698.738917003407</v>
       </c>
       <c r="W17" t="n">
-        <v>1974.958470641787</v>
+        <v>2293.88346241444</v>
       </c>
       <c r="X17" t="n">
-        <v>1555.816007221098</v>
+        <v>1874.740998993751</v>
       </c>
       <c r="Y17" t="n">
-        <v>1147.529883520751</v>
+        <v>1466.454875293404</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>60.34943619931342</v>
       </c>
       <c r="I18" t="n">
-        <v>79.41014028942945</v>
+        <v>105.473813449887</v>
       </c>
       <c r="J18" t="n">
-        <v>131.7141691818103</v>
+        <v>157.7778423422678</v>
       </c>
       <c r="K18" t="n">
-        <v>221.1100854220398</v>
+        <v>247.1737585824973</v>
       </c>
       <c r="L18" t="n">
-        <v>436.9238016013687</v>
+        <v>367.377600108764</v>
       </c>
       <c r="M18" t="n">
-        <v>577.1960150135983</v>
+        <v>507.6498135209936</v>
       </c>
       <c r="N18" t="n">
-        <v>721.1808165218519</v>
+        <v>651.6346150292471</v>
       </c>
       <c r="O18" t="n">
-        <v>852.8987801876511</v>
+        <v>783.3525786950463</v>
       </c>
       <c r="P18" t="n">
-        <v>1599.723053154155</v>
+        <v>941.8113364277393</v>
       </c>
       <c r="Q18" t="n">
-        <v>1670.390917082656</v>
+        <v>1553.218138988316</v>
       </c>
       <c r="R18" t="n">
         <v>1704.763315439303</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1040.155304808497</v>
+        <v>881.234929996703</v>
       </c>
       <c r="C20" t="n">
-        <v>1040.155304808497</v>
+        <v>881.234929996703</v>
       </c>
       <c r="D20" t="n">
-        <v>1040.155304808497</v>
+        <v>881.234929996703</v>
       </c>
       <c r="E20" t="n">
-        <v>1040.155304808497</v>
+        <v>881.234929996703</v>
       </c>
       <c r="F20" t="n">
-        <v>612.2878752177044</v>
+        <v>739.010003151354</v>
       </c>
       <c r="G20" t="n">
-        <v>338.6678745640299</v>
+        <v>338.66787456403</v>
       </c>
       <c r="H20" t="n">
         <v>60.34943619931342</v>
@@ -5758,7 +5758,7 @@
         <v>754.5210617750628</v>
       </c>
       <c r="L20" t="n">
-        <v>917.803583138212</v>
+        <v>917.8035831382119</v>
       </c>
       <c r="M20" t="n">
         <v>1099.486849328393</v>
@@ -5767,13 +5767,13 @@
         <v>1284.109940709539</v>
       </c>
       <c r="O20" t="n">
-        <v>1547.417790462446</v>
+        <v>1458.44429060625</v>
       </c>
       <c r="P20" t="n">
-        <v>2294.24206342895</v>
+        <v>2125.087998675893</v>
       </c>
       <c r="Q20" t="n">
-        <v>2952.476193898133</v>
+        <v>2783.322129145076</v>
       </c>
       <c r="R20" t="n">
         <v>3017.471809965671</v>
@@ -5782,22 +5782,22 @@
         <v>2957.876763463237</v>
       </c>
       <c r="T20" t="n">
-        <v>2957.876763463237</v>
+        <v>2742.430875296928</v>
       </c>
       <c r="U20" t="n">
-        <v>2698.738917003407</v>
+        <v>2483.293028837098</v>
       </c>
       <c r="V20" t="n">
-        <v>2698.738917003407</v>
+        <v>2120.676078770924</v>
       </c>
       <c r="W20" t="n">
-        <v>2293.88346241444</v>
+        <v>1715.820624181957</v>
       </c>
       <c r="X20" t="n">
-        <v>1874.740998993751</v>
+        <v>1715.820624181957</v>
       </c>
       <c r="Y20" t="n">
-        <v>1466.454875293404</v>
+        <v>1307.534500481611</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1873.209555459002</v>
+        <v>560.5010609326341</v>
       </c>
       <c r="C21" t="n">
-        <v>1766.753094295644</v>
+        <v>454.0445997692764</v>
       </c>
       <c r="D21" t="n">
-        <v>1671.662805442197</v>
+        <v>358.9543109158296</v>
       </c>
       <c r="E21" t="n">
-        <v>1577.542390769151</v>
+        <v>264.8338962427833</v>
       </c>
       <c r="F21" t="n">
-        <v>1494.158552385313</v>
+        <v>181.4500578589449</v>
       </c>
       <c r="G21" t="n">
-        <v>1409.338313441134</v>
+        <v>96.62981891476572</v>
       </c>
       <c r="H21" t="n">
-        <v>1373.057930725681</v>
+        <v>60.34943619931342</v>
       </c>
       <c r="I21" t="n">
-        <v>1418.182307976255</v>
+        <v>105.473813449887</v>
       </c>
       <c r="J21" t="n">
-        <v>1795.044661834848</v>
+        <v>482.3361673084801</v>
       </c>
       <c r="K21" t="n">
-        <v>1884.440578075078</v>
+        <v>571.7320835487096</v>
       </c>
       <c r="L21" t="n">
-        <v>2004.644419601344</v>
+        <v>691.9359250749764</v>
       </c>
       <c r="M21" t="n">
-        <v>2144.916633013574</v>
+        <v>832.208138487206</v>
       </c>
       <c r="N21" t="n">
-        <v>2288.901434521827</v>
+        <v>976.1929399954596</v>
       </c>
       <c r="O21" t="n">
-        <v>2420.619398187626</v>
+        <v>1107.910903661259</v>
       </c>
       <c r="P21" t="n">
-        <v>2526.334676490234</v>
+        <v>1213.626181963867</v>
       </c>
       <c r="Q21" t="n">
-        <v>2865.926633514684</v>
+        <v>1553.218138988316</v>
       </c>
       <c r="R21" t="n">
-        <v>3017.471809965671</v>
+        <v>1704.763315439303</v>
       </c>
       <c r="S21" t="n">
-        <v>2964.508228089985</v>
+        <v>1651.799733563617</v>
       </c>
       <c r="T21" t="n">
-        <v>2836.606329489342</v>
+        <v>1523.897834962975</v>
       </c>
       <c r="U21" t="n">
-        <v>2660.306943725471</v>
+        <v>1347.598449199103</v>
       </c>
       <c r="V21" t="n">
-        <v>2461.18942578747</v>
+        <v>1148.480931261103</v>
       </c>
       <c r="W21" t="n">
-        <v>2275.866671520664</v>
+        <v>963.1581769942966</v>
       </c>
       <c r="X21" t="n">
-        <v>2120.999235759544</v>
+        <v>808.2907412331765</v>
       </c>
       <c r="Y21" t="n">
-        <v>1994.513456538765</v>
+        <v>681.8049620123973</v>
       </c>
     </row>
     <row r="22">
@@ -5889,22 +5889,22 @@
         <v>1120.482739782733</v>
       </c>
       <c r="C22" t="n">
-        <v>947.9210282659584</v>
+        <v>947.9210282659583</v>
       </c>
       <c r="D22" t="n">
-        <v>782.0430354674811</v>
+        <v>782.0430354674809</v>
       </c>
       <c r="E22" t="n">
-        <v>612.2850317182184</v>
+        <v>612.2850317182183</v>
       </c>
       <c r="F22" t="n">
-        <v>435.5779776799747</v>
+        <v>435.5779776799745</v>
       </c>
       <c r="G22" t="n">
-        <v>270.4602546332661</v>
+        <v>270.4602546332658</v>
       </c>
       <c r="H22" t="n">
-        <v>134.7683874605457</v>
+        <v>134.7683874605455</v>
       </c>
       <c r="I22" t="n">
         <v>60.34943619931342</v>
@@ -5913,22 +5913,22 @@
         <v>179.7429882223853</v>
       </c>
       <c r="K22" t="n">
-        <v>508.4247060634351</v>
+        <v>388.7676061097681</v>
       </c>
       <c r="L22" t="n">
-        <v>995.6377996871219</v>
+        <v>875.9806997334549</v>
       </c>
       <c r="M22" t="n">
-        <v>1527.875878805682</v>
+        <v>1408.218778852015</v>
       </c>
       <c r="N22" t="n">
-        <v>2041.158961354755</v>
+        <v>1921.501861401089</v>
       </c>
       <c r="O22" t="n">
-        <v>2526.430628211258</v>
+        <v>2406.773528257592</v>
       </c>
       <c r="P22" t="n">
-        <v>2930.071723632534</v>
+        <v>2810.414623678867</v>
       </c>
       <c r="Q22" t="n">
         <v>3017.471809965671</v>
@@ -5946,7 +5946,7 @@
         <v>2344.094696397478</v>
       </c>
       <c r="V22" t="n">
-        <v>2057.139188267909</v>
+        <v>2057.139188267908</v>
       </c>
       <c r="W22" t="n">
         <v>1785.1127838542</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2515.7781488719</v>
+        <v>2515.778148871901</v>
       </c>
       <c r="C23" t="n">
-        <v>2077.635676055323</v>
+        <v>2077.635676055324</v>
       </c>
       <c r="D23" t="n">
         <v>1641.725891229768</v>
       </c>
       <c r="E23" t="n">
-        <v>1207.951146388063</v>
+        <v>1207.951146388064</v>
       </c>
       <c r="F23" t="n">
-        <v>780.0837167972708</v>
+        <v>780.0837167972713</v>
       </c>
       <c r="G23" t="n">
         <v>379.7415882099477</v>
@@ -5992,49 +5992,49 @@
         <v>663.9777798608982</v>
       </c>
       <c r="K23" t="n">
-        <v>1629.945067379158</v>
+        <v>1517.570576467781</v>
       </c>
       <c r="L23" t="n">
-        <v>2227.351883789523</v>
+        <v>1680.85309783093</v>
       </c>
       <c r="M23" t="n">
-        <v>2409.035149979705</v>
+        <v>1862.536364021111</v>
       </c>
       <c r="N23" t="n">
-        <v>2593.658241360851</v>
+        <v>2047.159455402257</v>
       </c>
       <c r="O23" t="n">
-        <v>3748.172257827869</v>
+        <v>3201.673471869275</v>
       </c>
       <c r="P23" t="n">
-        <v>4725.272466930374</v>
+        <v>4178.773680971781</v>
       </c>
       <c r="Q23" t="n">
-        <v>4837.007811440963</v>
+        <v>4837.007811440964</v>
       </c>
       <c r="R23" t="n">
-        <v>5071.157492261557</v>
+        <v>5071.157492261558</v>
       </c>
       <c r="S23" t="n">
-        <v>5011.562445759124</v>
+        <v>5011.562445759125</v>
       </c>
       <c r="T23" t="n">
-        <v>4796.116557592814</v>
+        <v>4796.116557592815</v>
       </c>
       <c r="U23" t="n">
-        <v>4536.978711132983</v>
+        <v>4536.978711132984</v>
       </c>
       <c r="V23" t="n">
-        <v>4174.36176106681</v>
+        <v>4174.361761066811</v>
       </c>
       <c r="W23" t="n">
-        <v>3769.506306477843</v>
+        <v>3769.506306477844</v>
       </c>
       <c r="X23" t="n">
-        <v>3350.363843057154</v>
+        <v>3350.363843057155</v>
       </c>
       <c r="Y23" t="n">
-        <v>2942.077719356807</v>
+        <v>2942.077719356808</v>
       </c>
     </row>
     <row r="24">
@@ -6068,7 +6068,7 @@
         <v>146.5475270958048</v>
       </c>
       <c r="J24" t="n">
-        <v>523.4098809543979</v>
+        <v>523.409880954398</v>
       </c>
       <c r="K24" t="n">
         <v>612.8057971946274</v>
@@ -6147,25 +6147,25 @@
         <v>101.4231498452312</v>
       </c>
       <c r="J25" t="n">
-        <v>134.2370167036132</v>
+        <v>220.816701868303</v>
       </c>
       <c r="K25" t="n">
-        <v>462.9187345446629</v>
+        <v>549.4984197093527</v>
       </c>
       <c r="L25" t="n">
-        <v>950.1318281683497</v>
+        <v>1036.711513333039</v>
       </c>
       <c r="M25" t="n">
-        <v>1482.36990728691</v>
+        <v>1568.9495924516</v>
       </c>
       <c r="N25" t="n">
-        <v>1995.652989835984</v>
+        <v>2082.232675000673</v>
       </c>
       <c r="O25" t="n">
-        <v>2480.924656692487</v>
+        <v>2567.504341857176</v>
       </c>
       <c r="P25" t="n">
-        <v>2884.565752113762</v>
+        <v>2971.145437278452</v>
       </c>
       <c r="Q25" t="n">
         <v>3058.545523611588</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2404.135642987271</v>
+        <v>2501.110202823688</v>
       </c>
       <c r="C26" t="n">
-        <v>1965.993170170694</v>
+        <v>2062.967730007112</v>
       </c>
       <c r="D26" t="n">
-        <v>1530.083385345139</v>
+        <v>1627.057945181556</v>
       </c>
       <c r="E26" t="n">
-        <v>1096.308640503434</v>
+        <v>1193.283200339851</v>
       </c>
       <c r="F26" t="n">
-        <v>765.415770749059</v>
+        <v>765.4157707490591</v>
       </c>
       <c r="G26" t="n">
         <v>365.0736421617351</v>
       </c>
       <c r="H26" t="n">
-        <v>86.75520379701848</v>
+        <v>86.7552037970185</v>
       </c>
       <c r="I26" t="n">
         <v>126.2367606838931</v>
@@ -6232,46 +6232,46 @@
         <v>1615.277121330946</v>
       </c>
       <c r="L26" t="n">
-        <v>1778.559642694095</v>
+        <v>1927.635461990602</v>
       </c>
       <c r="M26" t="n">
-        <v>1960.242908884276</v>
+        <v>2109.318728180784</v>
       </c>
       <c r="N26" t="n">
-        <v>2144.866000265422</v>
+        <v>2293.941819561929</v>
       </c>
       <c r="O26" t="n">
-        <v>2468.27616945864</v>
+        <v>2468.276169458641</v>
       </c>
       <c r="P26" t="n">
-        <v>3445.376378561145</v>
+        <v>3445.376378561147</v>
       </c>
       <c r="Q26" t="n">
-        <v>4103.61050903033</v>
+        <v>4103.610509030331</v>
       </c>
       <c r="R26" t="n">
-        <v>4337.760189850924</v>
+        <v>4337.760189850925</v>
       </c>
       <c r="S26" t="n">
-        <v>4278.16514334849</v>
+        <v>4278.165143348491</v>
       </c>
       <c r="T26" t="n">
-        <v>4062.719255182181</v>
+        <v>4062.719255182182</v>
       </c>
       <c r="U26" t="n">
-        <v>4062.719255182181</v>
+        <v>3803.581408722352</v>
       </c>
       <c r="V26" t="n">
-        <v>4062.719255182181</v>
+        <v>3440.964458656178</v>
       </c>
       <c r="W26" t="n">
-        <v>3657.863800593214</v>
+        <v>3440.964458656178</v>
       </c>
       <c r="X26" t="n">
-        <v>3238.721337172525</v>
+        <v>3021.821995235489</v>
       </c>
       <c r="Y26" t="n">
-        <v>2830.435213472178</v>
+        <v>2927.409773308596</v>
       </c>
     </row>
     <row r="27">
@@ -6299,7 +6299,7 @@
         <v>123.0355865124708</v>
       </c>
       <c r="H27" t="n">
-        <v>86.75520379701848</v>
+        <v>86.7552037970185</v>
       </c>
       <c r="I27" t="n">
         <v>131.8795810475921</v>
@@ -6308,13 +6308,13 @@
         <v>508.7419349061852</v>
       </c>
       <c r="K27" t="n">
-        <v>598.1378511464148</v>
+        <v>598.1378511464147</v>
       </c>
       <c r="L27" t="n">
-        <v>718.3416926726816</v>
+        <v>718.3416926726815</v>
       </c>
       <c r="M27" t="n">
-        <v>858.6139060849112</v>
+        <v>858.613906084911</v>
       </c>
       <c r="N27" t="n">
         <v>1002.598707593165</v>
@@ -6369,19 +6369,19 @@
         <v>808.4488030651862</v>
       </c>
       <c r="E28" t="n">
-        <v>638.6907993159234</v>
+        <v>638.6907993159235</v>
       </c>
       <c r="F28" t="n">
-        <v>461.9837452776796</v>
+        <v>461.9837452776798</v>
       </c>
       <c r="G28" t="n">
-        <v>296.8660222309711</v>
+        <v>296.8660222309712</v>
       </c>
       <c r="H28" t="n">
         <v>161.1741550582508</v>
       </c>
       <c r="I28" t="n">
-        <v>86.75520379701848</v>
+        <v>86.7552037970185</v>
       </c>
       <c r="J28" t="n">
         <v>206.1487558200903</v>
@@ -6402,7 +6402,7 @@
         <v>2552.836395808964</v>
       </c>
       <c r="P28" t="n">
-        <v>2836.820391276572</v>
+        <v>2956.47749123024</v>
       </c>
       <c r="Q28" t="n">
         <v>3043.877577563376</v>
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1841.975892963701</v>
+        <v>2316.559627589841</v>
       </c>
       <c r="C29" t="n">
-        <v>1403.833420147124</v>
+        <v>1878.417154773264</v>
       </c>
       <c r="D29" t="n">
-        <v>1348.73950681684</v>
+        <v>1442.507369947709</v>
       </c>
       <c r="E29" t="n">
-        <v>914.9647619751347</v>
+        <v>1008.732625106004</v>
       </c>
       <c r="F29" t="n">
-        <v>487.0973323843425</v>
+        <v>580.8651955152118</v>
       </c>
       <c r="G29" t="n">
-        <v>86.75520379701848</v>
+        <v>180.5230669278878</v>
       </c>
       <c r="H29" t="n">
-        <v>86.75520379701848</v>
+        <v>86.7552037970185</v>
       </c>
       <c r="I29" t="n">
         <v>126.2367606838931</v>
       </c>
       <c r="J29" t="n">
-        <v>649.3098338126856</v>
+        <v>214.0551463597677</v>
       </c>
       <c r="K29" t="n">
-        <v>1615.277121330946</v>
+        <v>459.0153679231705</v>
       </c>
       <c r="L29" t="n">
-        <v>1927.635461990601</v>
+        <v>622.2978892863196</v>
       </c>
       <c r="M29" t="n">
-        <v>2109.318728180782</v>
+        <v>1695.893536274423</v>
       </c>
       <c r="N29" t="n">
-        <v>2293.941819561928</v>
+        <v>2769.489183262527</v>
       </c>
       <c r="O29" t="n">
-        <v>2468.27616945864</v>
+        <v>3843.084830250631</v>
       </c>
       <c r="P29" t="n">
-        <v>3445.376378561145</v>
+        <v>3991.875164519741</v>
       </c>
       <c r="Q29" t="n">
-        <v>4103.61050903033</v>
+        <v>4103.610509030331</v>
       </c>
       <c r="R29" t="n">
-        <v>4337.760189850924</v>
+        <v>4337.760189850925</v>
       </c>
       <c r="S29" t="n">
-        <v>4337.760189850924</v>
+        <v>4337.760189850925</v>
       </c>
       <c r="T29" t="n">
-        <v>4122.314301684614</v>
+        <v>4337.760189850925</v>
       </c>
       <c r="U29" t="n">
-        <v>3863.176455224784</v>
+        <v>4337.760189850925</v>
       </c>
       <c r="V29" t="n">
-        <v>3500.559505158611</v>
+        <v>3975.143239784751</v>
       </c>
       <c r="W29" t="n">
-        <v>3095.704050569644</v>
+        <v>3570.287785195785</v>
       </c>
       <c r="X29" t="n">
-        <v>2676.561587148955</v>
+        <v>3151.145321775095</v>
       </c>
       <c r="Y29" t="n">
-        <v>2268.275463448608</v>
+        <v>2742.859198074749</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>123.0355865124708</v>
       </c>
       <c r="H30" t="n">
-        <v>86.75520379701848</v>
+        <v>86.7552037970185</v>
       </c>
       <c r="I30" t="n">
-        <v>105.8159078871345</v>
+        <v>131.8795810475921</v>
       </c>
       <c r="J30" t="n">
-        <v>482.6782617457276</v>
+        <v>508.7419349061852</v>
       </c>
       <c r="K30" t="n">
-        <v>572.0741779859571</v>
+        <v>867.0619442423628</v>
       </c>
       <c r="L30" t="n">
-        <v>692.2780195122239</v>
+        <v>987.2657857686295</v>
       </c>
       <c r="M30" t="n">
-        <v>832.5502329244534</v>
+        <v>1127.537999180859</v>
       </c>
       <c r="N30" t="n">
-        <v>976.535034432707</v>
+        <v>1271.522800689113</v>
       </c>
       <c r="O30" t="n">
-        <v>1108.252998098506</v>
+        <v>1403.240764354912</v>
       </c>
       <c r="P30" t="n">
-        <v>1213.968276401114</v>
+        <v>1508.95604265752</v>
       </c>
       <c r="Q30" t="n">
-        <v>1696.796684680361</v>
+        <v>1579.623906586021</v>
       </c>
       <c r="R30" t="n">
         <v>1731.169083037008</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2440.771119667987</v>
+        <v>1146.888507380439</v>
       </c>
       <c r="C31" t="n">
-        <v>2268.209408151212</v>
+        <v>974.3267958636635</v>
       </c>
       <c r="D31" t="n">
-        <v>2102.331415352735</v>
+        <v>808.4488030651862</v>
       </c>
       <c r="E31" t="n">
-        <v>1932.573411603472</v>
+        <v>638.6907993159235</v>
       </c>
       <c r="F31" t="n">
-        <v>1755.866357565228</v>
+        <v>461.9837452776798</v>
       </c>
       <c r="G31" t="n">
-        <v>1590.74863451852</v>
+        <v>296.8660222309712</v>
       </c>
       <c r="H31" t="n">
-        <v>1455.056767345799</v>
+        <v>161.1741550582508</v>
       </c>
       <c r="I31" t="n">
-        <v>1380.637816084567</v>
+        <v>86.7552037970185</v>
       </c>
       <c r="J31" t="n">
-        <v>1413.451682942949</v>
+        <v>206.1487558200903</v>
       </c>
       <c r="K31" t="n">
-        <v>1742.133400783999</v>
+        <v>534.83047366114</v>
       </c>
       <c r="L31" t="n">
-        <v>2229.346494407685</v>
+        <v>1022.043567284827</v>
       </c>
       <c r="M31" t="n">
-        <v>2761.584573526246</v>
+        <v>1554.281646403387</v>
       </c>
       <c r="N31" t="n">
-        <v>3274.867656075319</v>
+        <v>2067.56472895246</v>
       </c>
       <c r="O31" t="n">
-        <v>3760.139322931822</v>
+        <v>2552.836395808964</v>
       </c>
       <c r="P31" t="n">
-        <v>4163.780418353098</v>
+        <v>2956.47749123024</v>
       </c>
       <c r="Q31" t="n">
-        <v>4337.760189850924</v>
+        <v>3043.877577563376</v>
       </c>
       <c r="R31" t="n">
-        <v>4337.634985222076</v>
+        <v>3043.752372934528</v>
       </c>
       <c r="S31" t="n">
-        <v>4186.646335110509</v>
+        <v>2892.763722822961</v>
       </c>
       <c r="T31" t="n">
-        <v>3942.790246924492</v>
+        <v>2648.907634636943</v>
       </c>
       <c r="U31" t="n">
-        <v>3664.383076282732</v>
+        <v>2370.500463995183</v>
       </c>
       <c r="V31" t="n">
-        <v>3377.427568153162</v>
+        <v>2083.544955865614</v>
       </c>
       <c r="W31" t="n">
-        <v>3105.401163739454</v>
+        <v>1811.518551451905</v>
       </c>
       <c r="X31" t="n">
-        <v>2860.009409072866</v>
+        <v>1566.126796785318</v>
       </c>
       <c r="Y31" t="n">
-        <v>2632.589738386975</v>
+        <v>1338.707126099426</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2059.80093860482</v>
+        <v>1909.995756559384</v>
       </c>
       <c r="C32" t="n">
-        <v>1621.658465788244</v>
+        <v>1471.853283742807</v>
       </c>
       <c r="D32" t="n">
-        <v>1185.748680962688</v>
+        <v>1035.943498917252</v>
       </c>
       <c r="E32" t="n">
-        <v>751.9739361209831</v>
+        <v>602.168754075547</v>
       </c>
       <c r="F32" t="n">
-        <v>324.1065065301909</v>
+        <v>174.3013244847547</v>
       </c>
       <c r="G32" t="n">
-        <v>67.29765586999827</v>
+        <v>174.3013244847547</v>
       </c>
       <c r="H32" t="n">
-        <v>67.29765586999827</v>
+        <v>67.29765586999829</v>
       </c>
       <c r="I32" t="n">
         <v>106.7792127568729</v>
       </c>
       <c r="J32" t="n">
-        <v>629.8522858856653</v>
+        <v>629.8522858856654</v>
       </c>
       <c r="K32" t="n">
-        <v>761.4692814457476</v>
+        <v>761.4692814457477</v>
       </c>
       <c r="L32" t="n">
         <v>924.7518028088969</v>
@@ -6715,37 +6715,37 @@
         <v>1291.058160380224</v>
       </c>
       <c r="O32" t="n">
-        <v>1639.690490818907</v>
+        <v>1639.690490818908</v>
       </c>
       <c r="P32" t="n">
-        <v>2472.498982210135</v>
+        <v>2472.498982210137</v>
       </c>
       <c r="Q32" t="n">
-        <v>3130.733112679319</v>
+        <v>3130.73311267932</v>
       </c>
       <c r="R32" t="n">
         <v>3364.882793499914</v>
       </c>
       <c r="S32" t="n">
-        <v>3305.28774699748</v>
+        <v>3364.882793499914</v>
       </c>
       <c r="T32" t="n">
-        <v>3089.841858831171</v>
+        <v>3149.436905333605</v>
       </c>
       <c r="U32" t="n">
-        <v>2830.70401237134</v>
+        <v>3149.436905333605</v>
       </c>
       <c r="V32" t="n">
-        <v>2468.087062305167</v>
+        <v>3149.436905333605</v>
       </c>
       <c r="W32" t="n">
-        <v>2468.087062305167</v>
+        <v>2744.581450744638</v>
       </c>
       <c r="X32" t="n">
-        <v>2468.087062305167</v>
+        <v>2744.581450744638</v>
       </c>
       <c r="Y32" t="n">
-        <v>2059.80093860482</v>
+        <v>2336.295327044292</v>
       </c>
     </row>
     <row r="33">
@@ -6773,7 +6773,7 @@
         <v>103.5780385854506</v>
       </c>
       <c r="H33" t="n">
-        <v>67.29765586999827</v>
+        <v>67.29765586999829</v>
       </c>
       <c r="I33" t="n">
         <v>112.4220331205719</v>
@@ -6782,22 +6782,22 @@
         <v>489.284386979165</v>
       </c>
       <c r="K33" t="n">
-        <v>578.6803032193945</v>
+        <v>847.6043963153425</v>
       </c>
       <c r="L33" t="n">
-        <v>698.8841447456613</v>
+        <v>967.8082378416092</v>
       </c>
       <c r="M33" t="n">
-        <v>839.1563581578908</v>
+        <v>1108.080451253839</v>
       </c>
       <c r="N33" t="n">
-        <v>983.1411596661444</v>
+        <v>1252.065252762092</v>
       </c>
       <c r="O33" t="n">
-        <v>1114.859123331944</v>
+        <v>1383.783216427892</v>
       </c>
       <c r="P33" t="n">
-        <v>1220.574401634551</v>
+        <v>1489.498494730499</v>
       </c>
       <c r="Q33" t="n">
         <v>1560.166358659001</v>
@@ -6855,25 +6855,25 @@
         <v>141.7166071312306</v>
       </c>
       <c r="I34" t="n">
-        <v>67.29765586999827</v>
+        <v>67.29765586999829</v>
       </c>
       <c r="J34" t="n">
-        <v>100.1115227283803</v>
+        <v>186.6912078930702</v>
       </c>
       <c r="K34" t="n">
-        <v>428.79324056943</v>
+        <v>515.3729257341198</v>
       </c>
       <c r="L34" t="n">
-        <v>916.0063341931168</v>
+        <v>1002.586019357807</v>
       </c>
       <c r="M34" t="n">
-        <v>1448.244413311677</v>
+        <v>1415.1669985227</v>
       </c>
       <c r="N34" t="n">
-        <v>1961.52749586075</v>
+        <v>1928.450081071774</v>
       </c>
       <c r="O34" t="n">
-        <v>2446.799162717254</v>
+        <v>2413.721747928277</v>
       </c>
       <c r="P34" t="n">
         <v>2817.362843349552</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1310.604033629528</v>
+        <v>739.010003151354</v>
       </c>
       <c r="C35" t="n">
-        <v>1310.604033629528</v>
+        <v>739.010003151354</v>
       </c>
       <c r="D35" t="n">
-        <v>1310.604033629528</v>
+        <v>739.010003151354</v>
       </c>
       <c r="E35" t="n">
-        <v>888.5589943774296</v>
+        <v>739.010003151354</v>
       </c>
       <c r="F35" t="n">
-        <v>460.6915647866374</v>
+        <v>739.010003151354</v>
       </c>
       <c r="G35" t="n">
-        <v>60.34943619931342</v>
+        <v>338.66787456403</v>
       </c>
       <c r="H35" t="n">
         <v>60.34943619931342</v>
@@ -6943,7 +6943,7 @@
         <v>754.5210617750628</v>
       </c>
       <c r="L35" t="n">
-        <v>917.803583138212</v>
+        <v>917.8035831382119</v>
       </c>
       <c r="M35" t="n">
         <v>1099.486849328393</v>
@@ -6955,7 +6955,7 @@
         <v>1458.44429060625</v>
       </c>
       <c r="P35" t="n">
-        <v>2125.087998675892</v>
+        <v>2125.087998675893</v>
       </c>
       <c r="Q35" t="n">
         <v>2783.322129145076</v>
@@ -6964,25 +6964,25 @@
         <v>3017.471809965671</v>
       </c>
       <c r="S35" t="n">
-        <v>3017.471809965671</v>
+        <v>2957.876763463237</v>
       </c>
       <c r="T35" t="n">
-        <v>2802.025921799361</v>
+        <v>2742.430875296928</v>
       </c>
       <c r="U35" t="n">
-        <v>2542.888075339531</v>
+        <v>2483.293028837098</v>
       </c>
       <c r="V35" t="n">
-        <v>2542.888075339531</v>
+        <v>2120.676078770924</v>
       </c>
       <c r="W35" t="n">
-        <v>2138.032620750564</v>
+        <v>1715.820624181957</v>
       </c>
       <c r="X35" t="n">
-        <v>1718.890157329875</v>
+        <v>1296.678160761268</v>
       </c>
       <c r="Y35" t="n">
-        <v>1310.604033629528</v>
+        <v>888.3920370609213</v>
       </c>
     </row>
     <row r="36">
@@ -7016,13 +7016,13 @@
         <v>105.473813449887</v>
       </c>
       <c r="J36" t="n">
-        <v>482.3361673084802</v>
+        <v>482.3361673084801</v>
       </c>
       <c r="K36" t="n">
-        <v>840.6561766446576</v>
+        <v>840.6561766446579</v>
       </c>
       <c r="L36" t="n">
-        <v>960.8600181709244</v>
+        <v>960.8600181709246</v>
       </c>
       <c r="M36" t="n">
         <v>1101.132231583154</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1120.482739782734</v>
+        <v>1120.482739782733</v>
       </c>
       <c r="C37" t="n">
-        <v>947.9210282659586</v>
+        <v>947.9210282659584</v>
       </c>
       <c r="D37" t="n">
-        <v>782.0430354674813</v>
+        <v>782.0430354674811</v>
       </c>
       <c r="E37" t="n">
-        <v>612.2850317182185</v>
+        <v>612.2850317182184</v>
       </c>
       <c r="F37" t="n">
-        <v>435.5779776799748</v>
+        <v>435.5779776799747</v>
       </c>
       <c r="G37" t="n">
-        <v>270.4602546332662</v>
+        <v>270.4602546332661</v>
       </c>
       <c r="H37" t="n">
-        <v>134.7683874605459</v>
+        <v>134.7683874605457</v>
       </c>
       <c r="I37" t="n">
-        <v>60.34943619931357</v>
+        <v>60.34943619931342</v>
       </c>
       <c r="J37" t="n">
-        <v>179.7429882223854</v>
+        <v>179.7429882223853</v>
       </c>
       <c r="K37" t="n">
-        <v>508.4247060634351</v>
+        <v>508.4247060634349</v>
       </c>
       <c r="L37" t="n">
-        <v>995.637799687122</v>
+        <v>995.6377996871217</v>
       </c>
       <c r="M37" t="n">
         <v>1527.875878805682</v>
       </c>
       <c r="N37" t="n">
-        <v>2041.158961354756</v>
+        <v>2041.158961354755</v>
       </c>
       <c r="O37" t="n">
-        <v>2526.430628211259</v>
+        <v>2526.430628211258</v>
       </c>
       <c r="P37" t="n">
         <v>2930.071723632534</v>
@@ -7137,7 +7137,7 @@
         <v>1785.1127838542</v>
       </c>
       <c r="X37" t="n">
-        <v>1539.721029187613</v>
+        <v>1539.721029187612</v>
       </c>
       <c r="Y37" t="n">
         <v>1312.301358501721</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1796.043868273943</v>
+        <v>881.234929996703</v>
       </c>
       <c r="C38" t="n">
-        <v>1357.901395457366</v>
+        <v>881.234929996703</v>
       </c>
       <c r="D38" t="n">
-        <v>921.9916106318105</v>
+        <v>881.234929996703</v>
       </c>
       <c r="E38" t="n">
-        <v>488.2168657901057</v>
+        <v>447.4601851549982</v>
       </c>
       <c r="F38" t="n">
-        <v>60.34943619931342</v>
+        <v>447.4601851549982</v>
       </c>
       <c r="G38" t="n">
-        <v>60.34943619931342</v>
+        <v>338.66787456403</v>
       </c>
       <c r="H38" t="n">
         <v>60.34943619931342</v>
@@ -7180,7 +7180,7 @@
         <v>754.5210617750628</v>
       </c>
       <c r="L38" t="n">
-        <v>917.803583138212</v>
+        <v>917.8035831382119</v>
       </c>
       <c r="M38" t="n">
         <v>1099.486849328393</v>
@@ -7189,10 +7189,10 @@
         <v>1284.109940709539</v>
       </c>
       <c r="O38" t="n">
-        <v>1924.762511667984</v>
+        <v>1458.44429060625</v>
       </c>
       <c r="P38" t="n">
-        <v>2671.586784634487</v>
+        <v>2125.087998675893</v>
       </c>
       <c r="Q38" t="n">
         <v>2783.322129145076</v>
@@ -7201,25 +7201,25 @@
         <v>3017.471809965671</v>
       </c>
       <c r="S38" t="n">
-        <v>3017.471809965671</v>
+        <v>2957.876763463237</v>
       </c>
       <c r="T38" t="n">
-        <v>3017.471809965671</v>
+        <v>2742.430875296928</v>
       </c>
       <c r="U38" t="n">
-        <v>3017.471809965671</v>
+        <v>2483.293028837098</v>
       </c>
       <c r="V38" t="n">
-        <v>3017.471809965671</v>
+        <v>2120.676078770924</v>
       </c>
       <c r="W38" t="n">
-        <v>2623.472455394979</v>
+        <v>1715.820624181957</v>
       </c>
       <c r="X38" t="n">
-        <v>2204.329991974289</v>
+        <v>1715.820624181957</v>
       </c>
       <c r="Y38" t="n">
-        <v>1796.043868273943</v>
+        <v>1307.534500481611</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1873.209555459002</v>
+        <v>560.5010609326341</v>
       </c>
       <c r="C39" t="n">
-        <v>1766.753094295644</v>
+        <v>454.0445997692764</v>
       </c>
       <c r="D39" t="n">
-        <v>1671.662805442197</v>
+        <v>358.9543109158296</v>
       </c>
       <c r="E39" t="n">
-        <v>1577.542390769151</v>
+        <v>264.8338962427833</v>
       </c>
       <c r="F39" t="n">
-        <v>1494.158552385313</v>
+        <v>181.4500578589449</v>
       </c>
       <c r="G39" t="n">
-        <v>1409.338313441134</v>
+        <v>96.62981891476572</v>
       </c>
       <c r="H39" t="n">
-        <v>1373.057930725681</v>
+        <v>60.34943619931342</v>
       </c>
       <c r="I39" t="n">
-        <v>1418.182307976255</v>
+        <v>105.473813449887</v>
       </c>
       <c r="J39" t="n">
-        <v>1795.044661834848</v>
+        <v>482.3361673084801</v>
       </c>
       <c r="K39" t="n">
-        <v>2153.364671171025</v>
+        <v>840.6561766446579</v>
       </c>
       <c r="L39" t="n">
-        <v>2273.568512697292</v>
+        <v>960.8600181709246</v>
       </c>
       <c r="M39" t="n">
-        <v>2413.840726109521</v>
+        <v>1101.132231583154</v>
       </c>
       <c r="N39" t="n">
-        <v>2557.825527617775</v>
+        <v>1245.117033091408</v>
       </c>
       <c r="O39" t="n">
-        <v>2689.543491283574</v>
+        <v>1376.834996757207</v>
       </c>
       <c r="P39" t="n">
-        <v>2795.258769586182</v>
+        <v>1482.550275059815</v>
       </c>
       <c r="Q39" t="n">
-        <v>2865.926633514684</v>
+        <v>1553.218138988316</v>
       </c>
       <c r="R39" t="n">
-        <v>3017.471809965671</v>
+        <v>1704.763315439303</v>
       </c>
       <c r="S39" t="n">
-        <v>2964.508228089985</v>
+        <v>1651.799733563617</v>
       </c>
       <c r="T39" t="n">
-        <v>2836.606329489342</v>
+        <v>1523.897834962975</v>
       </c>
       <c r="U39" t="n">
-        <v>2660.306943725471</v>
+        <v>1347.598449199103</v>
       </c>
       <c r="V39" t="n">
-        <v>2461.18942578747</v>
+        <v>1148.480931261103</v>
       </c>
       <c r="W39" t="n">
-        <v>2275.866671520664</v>
+        <v>963.1581769942966</v>
       </c>
       <c r="X39" t="n">
-        <v>2120.999235759544</v>
+        <v>808.2907412331765</v>
       </c>
       <c r="Y39" t="n">
-        <v>1994.513456538765</v>
+        <v>681.8049620123973</v>
       </c>
     </row>
     <row r="40">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1334.74382242877</v>
+        <v>1768.518567270474</v>
       </c>
       <c r="C41" t="n">
-        <v>896.601349612193</v>
+        <v>1330.376094453898</v>
       </c>
       <c r="D41" t="n">
-        <v>460.6915647866374</v>
+        <v>894.4663096283423</v>
       </c>
       <c r="E41" t="n">
         <v>460.6915647866374</v>
@@ -7417,7 +7417,7 @@
         <v>754.5210617750628</v>
       </c>
       <c r="L41" t="n">
-        <v>917.803583138212</v>
+        <v>917.8035831382119</v>
       </c>
       <c r="M41" t="n">
         <v>1099.486849328393</v>
@@ -7429,7 +7429,7 @@
         <v>1458.44429060625</v>
       </c>
       <c r="P41" t="n">
-        <v>2125.087998675892</v>
+        <v>2125.087998675893</v>
       </c>
       <c r="Q41" t="n">
         <v>2783.322129145076</v>
@@ -7438,25 +7438,25 @@
         <v>3017.471809965671</v>
       </c>
       <c r="S41" t="n">
-        <v>2957.876763463237</v>
+        <v>3017.471809965671</v>
       </c>
       <c r="T41" t="n">
-        <v>2742.430875296928</v>
+        <v>2802.025921799361</v>
       </c>
       <c r="U41" t="n">
-        <v>2483.293028837098</v>
+        <v>2542.888075339531</v>
       </c>
       <c r="V41" t="n">
-        <v>2120.676078770924</v>
+        <v>2180.271125273357</v>
       </c>
       <c r="W41" t="n">
-        <v>1715.820624181957</v>
+        <v>1775.415670684391</v>
       </c>
       <c r="X41" t="n">
-        <v>1715.820624181957</v>
+        <v>1768.518567270474</v>
       </c>
       <c r="Y41" t="n">
-        <v>1334.74382242877</v>
+        <v>1768.518567270474</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>105.473813449887</v>
       </c>
       <c r="J42" t="n">
-        <v>482.3361673084802</v>
+        <v>482.3361673084801</v>
       </c>
       <c r="K42" t="n">
-        <v>840.6561766446576</v>
+        <v>571.7320835487096</v>
       </c>
       <c r="L42" t="n">
-        <v>960.8600181709244</v>
+        <v>691.9359250749764</v>
       </c>
       <c r="M42" t="n">
-        <v>1101.132231583154</v>
+        <v>832.208138487206</v>
       </c>
       <c r="N42" t="n">
-        <v>1245.117033091408</v>
+        <v>976.1929399954596</v>
       </c>
       <c r="O42" t="n">
-        <v>1376.834996757207</v>
+        <v>1107.910903661259</v>
       </c>
       <c r="P42" t="n">
-        <v>1482.550275059815</v>
+        <v>1213.626181963867</v>
       </c>
       <c r="Q42" t="n">
         <v>1553.218138988316</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1120.482739782733</v>
+        <v>1120.482739782734</v>
       </c>
       <c r="C43" t="n">
-        <v>947.9210282659584</v>
+        <v>947.9210282659586</v>
       </c>
       <c r="D43" t="n">
         <v>782.0430354674811</v>
@@ -7572,22 +7572,22 @@
         <v>179.7429882223853</v>
       </c>
       <c r="K43" t="n">
-        <v>508.4247060634351</v>
+        <v>388.7676061097681</v>
       </c>
       <c r="L43" t="n">
-        <v>995.6377996871219</v>
+        <v>875.9806997334549</v>
       </c>
       <c r="M43" t="n">
-        <v>1527.875878805682</v>
+        <v>1408.218778852015</v>
       </c>
       <c r="N43" t="n">
-        <v>2041.158961354755</v>
+        <v>1921.501861401089</v>
       </c>
       <c r="O43" t="n">
-        <v>2526.430628211258</v>
+        <v>2406.773528257592</v>
       </c>
       <c r="P43" t="n">
-        <v>2930.071723632534</v>
+        <v>2810.414623678867</v>
       </c>
       <c r="Q43" t="n">
         <v>3017.471809965671</v>
@@ -7611,7 +7611,7 @@
         <v>1785.1127838542</v>
       </c>
       <c r="X43" t="n">
-        <v>1539.721029187612</v>
+        <v>1539.721029187613</v>
       </c>
       <c r="Y43" t="n">
         <v>1312.301358501721</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>739.0100031513539</v>
+        <v>2078.437574248131</v>
       </c>
       <c r="C44" t="n">
-        <v>739.0100031513539</v>
+        <v>1640.295101431554</v>
       </c>
       <c r="D44" t="n">
-        <v>739.0100031513539</v>
+        <v>1204.385316605998</v>
       </c>
       <c r="E44" t="n">
-        <v>739.0100031513539</v>
+        <v>770.6105717642936</v>
       </c>
       <c r="F44" t="n">
-        <v>739.0100031513539</v>
+        <v>342.7431421735013</v>
       </c>
       <c r="G44" t="n">
-        <v>338.6678745640299</v>
+        <v>338.66787456403</v>
       </c>
       <c r="H44" t="n">
         <v>60.34943619931342</v>
@@ -7651,22 +7651,22 @@
         <v>622.9040662149805</v>
       </c>
       <c r="K44" t="n">
-        <v>1272.374435575595</v>
+        <v>754.5210617750628</v>
       </c>
       <c r="L44" t="n">
-        <v>1435.656956938744</v>
+        <v>917.8035831382119</v>
       </c>
       <c r="M44" t="n">
-        <v>1617.340223128926</v>
+        <v>1099.486849328393</v>
       </c>
       <c r="N44" t="n">
-        <v>1801.963314510071</v>
+        <v>1284.109940709539</v>
       </c>
       <c r="O44" t="n">
-        <v>1976.297664406783</v>
+        <v>1458.44429060625</v>
       </c>
       <c r="P44" t="n">
-        <v>2125.087998675892</v>
+        <v>2125.087998675893</v>
       </c>
       <c r="Q44" t="n">
         <v>2783.322129145076</v>
@@ -7684,16 +7684,16 @@
         <v>2483.293028837098</v>
       </c>
       <c r="V44" t="n">
-        <v>2120.676078770924</v>
+        <v>2483.293028837098</v>
       </c>
       <c r="W44" t="n">
-        <v>1715.820624181957</v>
+        <v>2078.437574248131</v>
       </c>
       <c r="X44" t="n">
-        <v>1296.678160761268</v>
+        <v>2078.437574248131</v>
       </c>
       <c r="Y44" t="n">
-        <v>888.3920370609213</v>
+        <v>2078.437574248131</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>105.473813449887</v>
       </c>
       <c r="J45" t="n">
-        <v>482.3361673084802</v>
+        <v>482.3361673084801</v>
       </c>
       <c r="K45" t="n">
-        <v>571.7320835487096</v>
+        <v>840.6561766446579</v>
       </c>
       <c r="L45" t="n">
-        <v>691.9359250749764</v>
+        <v>960.8600181709246</v>
       </c>
       <c r="M45" t="n">
-        <v>832.208138487206</v>
+        <v>1101.132231583154</v>
       </c>
       <c r="N45" t="n">
-        <v>976.1929399954596</v>
+        <v>1245.117033091408</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.910903661259</v>
+        <v>1376.834996757207</v>
       </c>
       <c r="P45" t="n">
-        <v>1213.626181963867</v>
+        <v>1482.550275059815</v>
       </c>
       <c r="Q45" t="n">
         <v>1553.218138988316</v>
@@ -7809,7 +7809,7 @@
         <v>179.7429882223853</v>
       </c>
       <c r="K46" t="n">
-        <v>508.4247060634349</v>
+        <v>388.7676061097681</v>
       </c>
       <c r="L46" t="n">
         <v>875.9806997334549</v>
@@ -7993,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8063,7 +8063,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8142,16 +8142,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L5" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>407.1525905495951</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,7 +8300,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>88.52591951400984</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8476,7 +8476,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,19 +8540,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>226.6534083847603</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8695,7 +8695,7 @@
         <v>621.4214923297184</v>
       </c>
       <c r="L11" t="n">
-        <v>589.4361127306611</v>
+        <v>341.3139230778077</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.8967860628982</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>96.57563096268908</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>647.5848430948441</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>271.6404980767154</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8856,7 +8856,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>343.2593608356024</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -8868,7 +8868,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.02593425319765</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>621.4214923297184</v>
+        <v>621.4214923297183</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>453.6816993461678</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>578.2726495654465</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>485.9229408978672</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>70.24868837636828</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>647.5848430948441</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>271.6404980767154</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>523.0842159601336</v>
+        <v>523.0842159601341</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>96.57563096268905</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>647.5848430948441</v>
+        <v>53.27624184857086</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>89.8722220769655</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>604.0746855529228</v>
+        <v>523.0842159601341</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>271.6404980767147</v>
+        <v>271.6404980767154</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9561,7 +9561,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>156.6680349671402</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
@@ -9579,7 +9579,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.02593425319765</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,10 +9640,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>729.2684859058589</v>
       </c>
       <c r="L23" t="n">
-        <v>438.5093889365817</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -9816,7 +9816,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>136.4801616922778</v>
+        <v>49.02593425319719</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>150.5816356530379</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>150.5816356530363</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>271.6404980767149</v>
+        <v>271.6404980767152</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10050,10 +10050,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>230.1513070875499</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>49.02593425319719</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>114.4881070740611</v>
       </c>
       <c r="L29" t="n">
-        <v>150.5816356530363</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>900.9215967655782</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>897.9520763706653</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>908.3447445367601</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>271.6404980767153</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>416.3237821724701</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -10290,7 +10290,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>136.4801616922769</v>
+        <v>49.02593425319719</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10363,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>176.0585662040116</v>
+        <v>176.0585662040128</v>
       </c>
       <c r="P32" t="n">
-        <v>690.9274314364834</v>
+        <v>690.9274314364836</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10430,7 +10430,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>271.6404980767152</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>271.6404980767152</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -10515,7 +10515,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>343.2593608356021</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -10524,7 +10524,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>317.6055345266309</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
         <v>169.8916917821538</v>
@@ -10603,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>523.0842159601336</v>
+        <v>523.0842159601341</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10667,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>271.6404980767152</v>
+        <v>271.6404980767154</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10764,7 +10764,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>49.02593425319719</v>
+        <v>49.02593425319765</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10837,13 +10837,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>471.0285061229629</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>604.0746855529228</v>
+        <v>523.0842159601341</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10904,7 +10904,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>271.6404980767147</v>
+        <v>271.6404980767154</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>523.0842159601336</v>
+        <v>523.0842159601341</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>271.6404980767152</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>271.6404980767154</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11220,7 +11220,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>156.6680349671402</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
@@ -11238,7 +11238,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>49.02593425319765</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>523.0842159601337</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>523.0842159601341</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>271.6404980767154</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>271.6404980767152</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11457,10 +11457,10 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>156.6680349671402</v>
       </c>
       <c r="L46" t="n">
-        <v>301.5684664790851</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645587</v>
@@ -23263,19 +23263,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>245.4719346313488</v>
+        <v>396.3387073014507</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>275.5352539810694</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>213.2914292846466</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.5464679952318</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>64.93505304426014</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>203.6479703143698</v>
+        <v>9.195358503266334</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>396.3387073014507</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>275.5352539810694</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>256.5464679952318</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>135.6271994478398</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>52.25236382101787</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>396.3387073014507</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>213.2914292846466</v>
       </c>
       <c r="U17" t="n">
-        <v>256.5464679952318</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23980,10 +23980,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>282.7860777179887</v>
       </c>
       <c r="G20" t="n">
-        <v>125.454906654313</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24022,19 +24022,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>213.2914292846466</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>96.00481423805337</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.5464679952318</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>310.7351627557191</v>
       </c>
     </row>
     <row r="27">
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>377.0077127803185</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>275.5352539810693</v>
+        <v>182.7050694815088</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>58.99909603740922</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>213.2914292846466</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.5464679952318</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>142.0979451478601</v>
+        <v>396.3387073014507</v>
       </c>
       <c r="H32" t="n">
-        <v>275.5352539810693</v>
+        <v>169.6016220524605</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>58.99909603740922</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.5464679952318</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>274.1483612095871</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -25162,16 +25162,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>11.61240853371015</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>275.5352539810693</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.99909603740922</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>396.3387073014507</v>
+        <v>288.6343198163922</v>
       </c>
       <c r="H38" t="n">
-        <v>275.5352539810693</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.99909603740922</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>213.2914292846466</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.5464679952318</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>10.74753901809191</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>275.5352539810693</v>
+        <v>275.5352539810694</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.99909603740922</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>408.1229064067053</v>
       </c>
       <c r="Y41" t="n">
-        <v>26.93722872768728</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>274.1483612095869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>392.3041923680741</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>485085.9698258173</v>
+        <v>485085.9698258174</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>485085.9698258173</v>
+        <v>485085.9698258174</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>703888.1046000557</v>
+        <v>703888.1046000558</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>625751.0767245337</v>
+        <v>625751.0767245338</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>625751.0767245336</v>
+        <v>625751.0767245337</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>522099.552525742</v>
+        <v>522099.5525257421</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>485085.9698258173</v>
+        <v>485085.9698258174</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>485085.9698258174</v>
+        <v>485085.9698258173</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>485085.9698258174</v>
+        <v>485085.9698258173</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>321688.3919342451</v>
+      </c>
+      <c r="C2" t="n">
         <v>321688.391934245</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>321688.3919342451</v>
-      </c>
-      <c r="D2" t="n">
-        <v>321688.391934245</v>
       </c>
       <c r="E2" t="n">
         <v>226527.2677877497</v>
@@ -26331,16 +26331,16 @@
         <v>226527.2677877497</v>
       </c>
       <c r="H2" t="n">
-        <v>226527.2677877497</v>
+        <v>226527.2677877498</v>
       </c>
       <c r="I2" t="n">
         <v>321688.3919342451</v>
       </c>
       <c r="J2" t="n">
+        <v>287705.1430149747</v>
+      </c>
+      <c r="K2" t="n">
         <v>287705.1430149745</v>
-      </c>
-      <c r="K2" t="n">
-        <v>287705.1430149746</v>
       </c>
       <c r="L2" t="n">
         <v>242625.164373852</v>
@@ -26349,7 +26349,7 @@
         <v>226527.2677877497</v>
       </c>
       <c r="N2" t="n">
-        <v>226527.2677877497</v>
+        <v>226527.2677877498</v>
       </c>
       <c r="O2" t="n">
         <v>226527.2677877497</v>
@@ -26374,7 +26374,7 @@
         <v>75551.22640712859</v>
       </c>
       <c r="E3" t="n">
-        <v>234801.0376703385</v>
+        <v>234801.0376703384</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>224357.4126279202</v>
+        <v>224357.4126279203</v>
       </c>
       <c r="C4" t="n">
-        <v>224357.4126279202</v>
+        <v>224357.4126279203</v>
       </c>
       <c r="D4" t="n">
         <v>191142.4292802123</v>
       </c>
       <c r="E4" t="n">
-        <v>51478.52630293638</v>
+        <v>51478.52630293639</v>
       </c>
       <c r="F4" t="n">
         <v>51478.52630293639</v>
       </c>
       <c r="G4" t="n">
-        <v>51478.52630293639</v>
+        <v>51478.5263029364</v>
       </c>
       <c r="H4" t="n">
         <v>51478.52630293639</v>
       </c>
       <c r="I4" t="n">
-        <v>88131.23966412604</v>
+        <v>88131.23966412607</v>
       </c>
       <c r="J4" t="n">
-        <v>75042.08910089308</v>
+        <v>75042.08910089309</v>
       </c>
       <c r="K4" t="n">
-        <v>75042.08910089306</v>
+        <v>75042.08910089309</v>
       </c>
       <c r="L4" t="n">
-        <v>57678.86908556429</v>
+        <v>57678.86908556431</v>
       </c>
       <c r="M4" t="n">
         <v>51478.52630293639</v>
       </c>
       <c r="N4" t="n">
-        <v>51478.52630293637</v>
+        <v>51478.52630293639</v>
       </c>
       <c r="O4" t="n">
         <v>51478.52630293639</v>
@@ -26490,16 +26490,16 @@
         <v>51533.1356897501</v>
       </c>
       <c r="I5" t="n">
-        <v>82749.15806064758</v>
+        <v>82749.15806064759</v>
       </c>
       <c r="J5" t="n">
-        <v>71601.51906400594</v>
+        <v>71601.51906400596</v>
       </c>
       <c r="K5" t="n">
-        <v>71601.51906400594</v>
+        <v>71601.51906400596</v>
       </c>
       <c r="L5" t="n">
-        <v>56813.78263947058</v>
+        <v>56813.7826394706</v>
       </c>
       <c r="M5" t="n">
         <v>51533.1356897501</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-104285.1094906075</v>
+        <v>-104285.1094906074</v>
       </c>
       <c r="C6" t="n">
-        <v>37906.1911691025</v>
+        <v>37906.19116910239</v>
       </c>
       <c r="D6" t="n">
-        <v>-19217.78831485362</v>
+        <v>-19217.78831485355</v>
       </c>
       <c r="E6" t="n">
-        <v>-111285.4318752752</v>
+        <v>-111681.9365592189</v>
       </c>
       <c r="F6" t="n">
-        <v>123515.6057950633</v>
+        <v>123119.1011111195</v>
       </c>
       <c r="G6" t="n">
-        <v>123515.6057950632</v>
+        <v>123119.1011111195</v>
       </c>
       <c r="H6" t="n">
-        <v>123515.6057950633</v>
+        <v>123119.1011111195</v>
       </c>
       <c r="I6" t="n">
-        <v>14278.45662902042</v>
+        <v>14278.45662902032</v>
       </c>
       <c r="J6" t="n">
-        <v>78019.3204530673</v>
+        <v>77877.72358257041</v>
       </c>
       <c r="K6" t="n">
-        <v>141061.5348500756</v>
+        <v>140919.9379795785</v>
       </c>
       <c r="L6" t="n">
-        <v>128132.5126488172</v>
+        <v>127803.0825339821</v>
       </c>
       <c r="M6" t="n">
-        <v>123515.6057950632</v>
+        <v>123119.1011111195</v>
       </c>
       <c r="N6" t="n">
-        <v>123515.6057950633</v>
+        <v>123119.1011111195</v>
       </c>
       <c r="O6" t="n">
-        <v>123515.6057950633</v>
+        <v>123119.1011111195</v>
       </c>
       <c r="P6" t="n">
-        <v>123515.6057950633</v>
+        <v>123119.1011111195</v>
       </c>
     </row>
   </sheetData>
@@ -26810,7 +26810,7 @@
         <v>754.3679524914177</v>
       </c>
       <c r="I4" t="n">
-        <v>1267.789373065389</v>
+        <v>1267.78937306539</v>
       </c>
       <c r="J4" t="n">
         <v>1084.440047462731</v>
@@ -26819,7 +26819,7 @@
         <v>1084.440047462731</v>
       </c>
       <c r="L4" t="n">
-        <v>841.2206983749784</v>
+        <v>841.2206983749786</v>
       </c>
       <c r="M4" t="n">
         <v>754.3679524914177</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>513.4214205739715</v>
+        <v>513.4214205739718</v>
       </c>
       <c r="J4" t="n">
         <v>240.946531917446</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>239.8768126046903</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>174.6205629373428</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>25.83999987617597</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -27593,7 +27593,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>77.16540684756777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27669,22 +27669,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>147.6279365193116</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>104.675330873648</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>119.5821359351618</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>3.847196642600778</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>86.5576416575629</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27870,7 +27870,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>72.11458473508574</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>143.6516710866787</v>
       </c>
       <c r="T10" t="n">
-        <v>229.4233680290247</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -31752,22 +31752,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.045145761518031</v>
+        <v>1.04514576151803</v>
       </c>
       <c r="H11" t="n">
         <v>10.70359903014653</v>
       </c>
       <c r="I11" t="n">
-        <v>40.29298197092392</v>
+        <v>40.29298197092391</v>
       </c>
       <c r="J11" t="n">
-        <v>88.70544007664104</v>
+        <v>88.70544007664103</v>
       </c>
       <c r="K11" t="n">
         <v>132.9464601616993</v>
       </c>
       <c r="L11" t="n">
-        <v>164.9318397607568</v>
+        <v>164.9318397607567</v>
       </c>
       <c r="M11" t="n">
         <v>183.518450697153</v>
@@ -31785,16 +31785,16 @@
         <v>112.8639843541303</v>
       </c>
       <c r="R11" t="n">
-        <v>65.65213744195705</v>
+        <v>65.65213744195704</v>
       </c>
       <c r="S11" t="n">
-        <v>23.81625904059215</v>
+        <v>23.81625904059214</v>
       </c>
       <c r="T11" t="n">
-        <v>4.575125571045182</v>
+        <v>4.575125571045181</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08361166092144244</v>
+        <v>0.08361166092144243</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5592022817405203</v>
+        <v>0.5592022817405202</v>
       </c>
       <c r="H12" t="n">
-        <v>5.400716773651868</v>
+        <v>5.400716773651867</v>
       </c>
       <c r="I12" t="n">
-        <v>19.25323645466266</v>
+        <v>19.25323645466265</v>
       </c>
       <c r="J12" t="n">
-        <v>52.83235241654627</v>
+        <v>52.83235241654626</v>
       </c>
       <c r="K12" t="n">
-        <v>90.29890529316114</v>
+        <v>90.29890529316111</v>
       </c>
       <c r="L12" t="n">
         <v>121.4180217437038</v>
@@ -31855,16 +31855,16 @@
         <v>145.4391934426803</v>
       </c>
       <c r="O12" t="n">
-        <v>133.048448147272</v>
+        <v>133.0484481472719</v>
       </c>
       <c r="P12" t="n">
         <v>106.7831093965736</v>
       </c>
       <c r="Q12" t="n">
-        <v>71.38168073586012</v>
+        <v>71.3816807358601</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7195942996439</v>
+        <v>34.71959429964389</v>
       </c>
       <c r="S12" t="n">
         <v>10.3869371191715</v>
@@ -31873,7 +31873,7 @@
         <v>2.253977618068149</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03678962379871846</v>
+        <v>0.03678962379871845</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4688164081891333</v>
+        <v>0.4688164081891332</v>
       </c>
       <c r="H13" t="n">
         <v>4.168204065536115</v>
       </c>
       <c r="I13" t="n">
-        <v>14.0985879844514</v>
+        <v>14.09858798445139</v>
       </c>
       <c r="J13" t="n">
-        <v>33.14532005897173</v>
+        <v>33.14532005897172</v>
       </c>
       <c r="K13" t="n">
-        <v>54.46794269688294</v>
+        <v>54.46794269688292</v>
       </c>
       <c r="L13" t="n">
-        <v>69.70021399568262</v>
+        <v>69.7002139956826</v>
       </c>
       <c r="M13" t="n">
-        <v>73.48910296732022</v>
+        <v>73.48910296732021</v>
       </c>
       <c r="N13" t="n">
-        <v>71.74169635497897</v>
+        <v>71.74169635497896</v>
       </c>
       <c r="O13" t="n">
-        <v>66.26506831386044</v>
+        <v>66.26506831386043</v>
       </c>
       <c r="P13" t="n">
-        <v>56.70121358680207</v>
+        <v>56.70121358680206</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.25698123481916</v>
+        <v>39.25698123481915</v>
       </c>
       <c r="R13" t="n">
-        <v>21.0796904991223</v>
+        <v>21.07969049912229</v>
       </c>
       <c r="S13" t="n">
-        <v>8.170191404532439</v>
+        <v>8.170191404532437</v>
       </c>
       <c r="T13" t="n">
         <v>2.003124653171751</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02557180408304367</v>
+        <v>0.02557180408304366</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,22 +31989,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.045145761518031</v>
+        <v>1.04514576151803</v>
       </c>
       <c r="H14" t="n">
         <v>10.70359903014653</v>
       </c>
       <c r="I14" t="n">
-        <v>40.29298197092392</v>
+        <v>40.29298197092391</v>
       </c>
       <c r="J14" t="n">
-        <v>88.70544007664104</v>
+        <v>88.70544007664103</v>
       </c>
       <c r="K14" t="n">
         <v>132.9464601616993</v>
       </c>
       <c r="L14" t="n">
-        <v>164.9318397607568</v>
+        <v>164.9318397607567</v>
       </c>
       <c r="M14" t="n">
         <v>183.518450697153</v>
@@ -32022,16 +32022,16 @@
         <v>112.8639843541303</v>
       </c>
       <c r="R14" t="n">
-        <v>65.65213744195705</v>
+        <v>65.65213744195704</v>
       </c>
       <c r="S14" t="n">
-        <v>23.81625904059215</v>
+        <v>23.81625904059214</v>
       </c>
       <c r="T14" t="n">
-        <v>4.575125571045182</v>
+        <v>4.575125571045181</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08361166092144244</v>
+        <v>0.08361166092144243</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5592022817405203</v>
+        <v>0.5592022817405202</v>
       </c>
       <c r="H15" t="n">
-        <v>5.400716773651868</v>
+        <v>5.400716773651867</v>
       </c>
       <c r="I15" t="n">
-        <v>19.25323645466266</v>
+        <v>19.25323645466265</v>
       </c>
       <c r="J15" t="n">
-        <v>52.83235241654627</v>
+        <v>52.83235241654626</v>
       </c>
       <c r="K15" t="n">
-        <v>90.29890529316114</v>
+        <v>90.29890529316111</v>
       </c>
       <c r="L15" t="n">
         <v>121.4180217437038</v>
@@ -32092,16 +32092,16 @@
         <v>145.4391934426803</v>
       </c>
       <c r="O15" t="n">
-        <v>133.048448147272</v>
+        <v>133.0484481472719</v>
       </c>
       <c r="P15" t="n">
         <v>106.7831093965736</v>
       </c>
       <c r="Q15" t="n">
-        <v>71.38168073586012</v>
+        <v>71.3816807358601</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7195942996439</v>
+        <v>34.71959429964389</v>
       </c>
       <c r="S15" t="n">
         <v>10.3869371191715</v>
@@ -32110,7 +32110,7 @@
         <v>2.253977618068149</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03678962379871846</v>
+        <v>0.03678962379871845</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4688164081891333</v>
+        <v>0.4688164081891332</v>
       </c>
       <c r="H16" t="n">
         <v>4.168204065536115</v>
       </c>
       <c r="I16" t="n">
-        <v>14.0985879844514</v>
+        <v>14.09858798445139</v>
       </c>
       <c r="J16" t="n">
-        <v>33.14532005897173</v>
+        <v>33.14532005897172</v>
       </c>
       <c r="K16" t="n">
-        <v>54.46794269688294</v>
+        <v>54.46794269688292</v>
       </c>
       <c r="L16" t="n">
-        <v>69.70021399568262</v>
+        <v>69.7002139956826</v>
       </c>
       <c r="M16" t="n">
-        <v>73.48910296732022</v>
+        <v>73.48910296732021</v>
       </c>
       <c r="N16" t="n">
-        <v>71.74169635497897</v>
+        <v>71.74169635497896</v>
       </c>
       <c r="O16" t="n">
-        <v>66.26506831386044</v>
+        <v>66.26506831386043</v>
       </c>
       <c r="P16" t="n">
-        <v>56.70121358680207</v>
+        <v>56.70121358680206</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.25698123481916</v>
+        <v>39.25698123481915</v>
       </c>
       <c r="R16" t="n">
-        <v>21.0796904991223</v>
+        <v>21.07969049912229</v>
       </c>
       <c r="S16" t="n">
-        <v>8.170191404532439</v>
+        <v>8.170191404532437</v>
       </c>
       <c r="T16" t="n">
         <v>2.003124653171751</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02557180408304367</v>
+        <v>0.02557180408304366</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,22 +32226,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.045145761518031</v>
+        <v>1.04514576151803</v>
       </c>
       <c r="H17" t="n">
         <v>10.70359903014653</v>
       </c>
       <c r="I17" t="n">
-        <v>40.29298197092392</v>
+        <v>40.29298197092391</v>
       </c>
       <c r="J17" t="n">
-        <v>88.70544007664104</v>
+        <v>88.70544007664103</v>
       </c>
       <c r="K17" t="n">
         <v>132.9464601616993</v>
       </c>
       <c r="L17" t="n">
-        <v>164.9318397607568</v>
+        <v>164.9318397607567</v>
       </c>
       <c r="M17" t="n">
         <v>183.518450697153</v>
@@ -32259,16 +32259,16 @@
         <v>112.8639843541303</v>
       </c>
       <c r="R17" t="n">
-        <v>65.65213744195705</v>
+        <v>65.65213744195704</v>
       </c>
       <c r="S17" t="n">
-        <v>23.81625904059215</v>
+        <v>23.81625904059214</v>
       </c>
       <c r="T17" t="n">
-        <v>4.575125571045182</v>
+        <v>4.575125571045181</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08361166092144244</v>
+        <v>0.08361166092144243</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5592022817405203</v>
+        <v>0.5592022817405202</v>
       </c>
       <c r="H18" t="n">
-        <v>5.400716773651868</v>
+        <v>5.400716773651867</v>
       </c>
       <c r="I18" t="n">
-        <v>19.25323645466266</v>
+        <v>19.25323645466265</v>
       </c>
       <c r="J18" t="n">
-        <v>52.83235241654627</v>
+        <v>52.83235241654626</v>
       </c>
       <c r="K18" t="n">
-        <v>90.29890529316114</v>
+        <v>90.29890529316111</v>
       </c>
       <c r="L18" t="n">
         <v>121.4180217437038</v>
@@ -32329,16 +32329,16 @@
         <v>145.4391934426803</v>
       </c>
       <c r="O18" t="n">
-        <v>133.048448147272</v>
+        <v>133.0484481472719</v>
       </c>
       <c r="P18" t="n">
         <v>106.7831093965736</v>
       </c>
       <c r="Q18" t="n">
-        <v>71.38168073586012</v>
+        <v>71.3816807358601</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7195942996439</v>
+        <v>34.71959429964389</v>
       </c>
       <c r="S18" t="n">
         <v>10.3869371191715</v>
@@ -32347,7 +32347,7 @@
         <v>2.253977618068149</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03678962379871846</v>
+        <v>0.03678962379871845</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4688164081891333</v>
+        <v>0.4688164081891332</v>
       </c>
       <c r="H19" t="n">
         <v>4.168204065536115</v>
       </c>
       <c r="I19" t="n">
-        <v>14.0985879844514</v>
+        <v>14.09858798445139</v>
       </c>
       <c r="J19" t="n">
-        <v>33.14532005897173</v>
+        <v>33.14532005897172</v>
       </c>
       <c r="K19" t="n">
-        <v>54.46794269688294</v>
+        <v>54.46794269688292</v>
       </c>
       <c r="L19" t="n">
-        <v>69.70021399568262</v>
+        <v>69.7002139956826</v>
       </c>
       <c r="M19" t="n">
-        <v>73.48910296732022</v>
+        <v>73.48910296732021</v>
       </c>
       <c r="N19" t="n">
-        <v>71.74169635497897</v>
+        <v>71.74169635497896</v>
       </c>
       <c r="O19" t="n">
-        <v>66.26506831386044</v>
+        <v>66.26506831386043</v>
       </c>
       <c r="P19" t="n">
-        <v>56.70121358680207</v>
+        <v>56.70121358680206</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.25698123481916</v>
+        <v>39.25698123481915</v>
       </c>
       <c r="R19" t="n">
-        <v>21.0796904991223</v>
+        <v>21.07969049912229</v>
       </c>
       <c r="S19" t="n">
-        <v>8.170191404532439</v>
+        <v>8.170191404532437</v>
       </c>
       <c r="T19" t="n">
         <v>2.003124653171751</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02557180408304367</v>
+        <v>0.02557180408304366</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,22 +32463,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.045145761518031</v>
+        <v>1.04514576151803</v>
       </c>
       <c r="H20" t="n">
         <v>10.70359903014653</v>
       </c>
       <c r="I20" t="n">
-        <v>40.29298197092392</v>
+        <v>40.29298197092391</v>
       </c>
       <c r="J20" t="n">
-        <v>88.70544007664104</v>
+        <v>88.70544007664103</v>
       </c>
       <c r="K20" t="n">
         <v>132.9464601616993</v>
       </c>
       <c r="L20" t="n">
-        <v>164.9318397607568</v>
+        <v>164.9318397607567</v>
       </c>
       <c r="M20" t="n">
         <v>183.518450697153</v>
@@ -32496,16 +32496,16 @@
         <v>112.8639843541303</v>
       </c>
       <c r="R20" t="n">
-        <v>65.65213744195705</v>
+        <v>65.65213744195704</v>
       </c>
       <c r="S20" t="n">
-        <v>23.81625904059215</v>
+        <v>23.81625904059214</v>
       </c>
       <c r="T20" t="n">
-        <v>4.575125571045182</v>
+        <v>4.575125571045181</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08361166092144244</v>
+        <v>0.08361166092144243</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5592022817405203</v>
+        <v>0.5592022817405202</v>
       </c>
       <c r="H21" t="n">
-        <v>5.400716773651868</v>
+        <v>5.400716773651867</v>
       </c>
       <c r="I21" t="n">
-        <v>19.25323645466266</v>
+        <v>19.25323645466265</v>
       </c>
       <c r="J21" t="n">
-        <v>52.83235241654627</v>
+        <v>52.83235241654626</v>
       </c>
       <c r="K21" t="n">
-        <v>90.29890529316114</v>
+        <v>90.29890529316111</v>
       </c>
       <c r="L21" t="n">
         <v>121.4180217437038</v>
@@ -32566,16 +32566,16 @@
         <v>145.4391934426803</v>
       </c>
       <c r="O21" t="n">
-        <v>133.048448147272</v>
+        <v>133.0484481472719</v>
       </c>
       <c r="P21" t="n">
         <v>106.7831093965736</v>
       </c>
       <c r="Q21" t="n">
-        <v>71.38168073586012</v>
+        <v>71.3816807358601</v>
       </c>
       <c r="R21" t="n">
-        <v>34.7195942996439</v>
+        <v>34.71959429964389</v>
       </c>
       <c r="S21" t="n">
         <v>10.3869371191715</v>
@@ -32584,7 +32584,7 @@
         <v>2.253977618068149</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03678962379871846</v>
+        <v>0.03678962379871845</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4688164081891333</v>
+        <v>0.4688164081891332</v>
       </c>
       <c r="H22" t="n">
         <v>4.168204065536115</v>
       </c>
       <c r="I22" t="n">
-        <v>14.0985879844514</v>
+        <v>14.09858798445139</v>
       </c>
       <c r="J22" t="n">
-        <v>33.14532005897173</v>
+        <v>33.14532005897172</v>
       </c>
       <c r="K22" t="n">
-        <v>54.46794269688294</v>
+        <v>54.46794269688292</v>
       </c>
       <c r="L22" t="n">
-        <v>69.70021399568262</v>
+        <v>69.7002139956826</v>
       </c>
       <c r="M22" t="n">
-        <v>73.48910296732022</v>
+        <v>73.48910296732021</v>
       </c>
       <c r="N22" t="n">
-        <v>71.74169635497897</v>
+        <v>71.74169635497896</v>
       </c>
       <c r="O22" t="n">
-        <v>66.26506831386044</v>
+        <v>66.26506831386043</v>
       </c>
       <c r="P22" t="n">
-        <v>56.70121358680207</v>
+        <v>56.70121358680206</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.25698123481916</v>
+        <v>39.25698123481915</v>
       </c>
       <c r="R22" t="n">
-        <v>21.0796904991223</v>
+        <v>21.07969049912229</v>
       </c>
       <c r="S22" t="n">
-        <v>8.170191404532439</v>
+        <v>8.170191404532437</v>
       </c>
       <c r="T22" t="n">
         <v>2.003124653171751</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02557180408304367</v>
+        <v>0.02557180408304366</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,22 +32700,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.045145761518031</v>
+        <v>1.04514576151803</v>
       </c>
       <c r="H23" t="n">
         <v>10.70359903014653</v>
       </c>
       <c r="I23" t="n">
-        <v>40.29298197092392</v>
+        <v>40.29298197092391</v>
       </c>
       <c r="J23" t="n">
-        <v>88.70544007664104</v>
+        <v>88.70544007664103</v>
       </c>
       <c r="K23" t="n">
         <v>132.9464601616993</v>
       </c>
       <c r="L23" t="n">
-        <v>164.9318397607568</v>
+        <v>164.9318397607567</v>
       </c>
       <c r="M23" t="n">
         <v>183.518450697153</v>
@@ -32733,16 +32733,16 @@
         <v>112.8639843541303</v>
       </c>
       <c r="R23" t="n">
-        <v>65.65213744195705</v>
+        <v>65.65213744195704</v>
       </c>
       <c r="S23" t="n">
-        <v>23.81625904059215</v>
+        <v>23.81625904059214</v>
       </c>
       <c r="T23" t="n">
-        <v>4.575125571045182</v>
+        <v>4.575125571045181</v>
       </c>
       <c r="U23" t="n">
-        <v>0.08361166092144244</v>
+        <v>0.08361166092144243</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5592022817405203</v>
+        <v>0.5592022817405202</v>
       </c>
       <c r="H24" t="n">
-        <v>5.400716773651868</v>
+        <v>5.400716773651867</v>
       </c>
       <c r="I24" t="n">
-        <v>19.25323645466266</v>
+        <v>19.25323645466265</v>
       </c>
       <c r="J24" t="n">
-        <v>52.83235241654627</v>
+        <v>52.83235241654626</v>
       </c>
       <c r="K24" t="n">
-        <v>90.29890529316114</v>
+        <v>90.29890529316111</v>
       </c>
       <c r="L24" t="n">
         <v>121.4180217437038</v>
@@ -32803,16 +32803,16 @@
         <v>145.4391934426803</v>
       </c>
       <c r="O24" t="n">
-        <v>133.048448147272</v>
+        <v>133.0484481472719</v>
       </c>
       <c r="P24" t="n">
         <v>106.7831093965736</v>
       </c>
       <c r="Q24" t="n">
-        <v>71.38168073586012</v>
+        <v>71.3816807358601</v>
       </c>
       <c r="R24" t="n">
-        <v>34.7195942996439</v>
+        <v>34.71959429964389</v>
       </c>
       <c r="S24" t="n">
         <v>10.3869371191715</v>
@@ -32821,7 +32821,7 @@
         <v>2.253977618068149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03678962379871846</v>
+        <v>0.03678962379871845</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4688164081891333</v>
+        <v>0.4688164081891332</v>
       </c>
       <c r="H25" t="n">
         <v>4.168204065536115</v>
       </c>
       <c r="I25" t="n">
-        <v>14.0985879844514</v>
+        <v>14.09858798445139</v>
       </c>
       <c r="J25" t="n">
-        <v>33.14532005897173</v>
+        <v>33.14532005897172</v>
       </c>
       <c r="K25" t="n">
-        <v>54.46794269688294</v>
+        <v>54.46794269688292</v>
       </c>
       <c r="L25" t="n">
-        <v>69.70021399568262</v>
+        <v>69.7002139956826</v>
       </c>
       <c r="M25" t="n">
-        <v>73.48910296732022</v>
+        <v>73.48910296732021</v>
       </c>
       <c r="N25" t="n">
-        <v>71.74169635497897</v>
+        <v>71.74169635497896</v>
       </c>
       <c r="O25" t="n">
-        <v>66.26506831386044</v>
+        <v>66.26506831386043</v>
       </c>
       <c r="P25" t="n">
-        <v>56.70121358680207</v>
+        <v>56.70121358680206</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.25698123481916</v>
+        <v>39.25698123481915</v>
       </c>
       <c r="R25" t="n">
-        <v>21.0796904991223</v>
+        <v>21.07969049912229</v>
       </c>
       <c r="S25" t="n">
-        <v>8.170191404532439</v>
+        <v>8.170191404532437</v>
       </c>
       <c r="T25" t="n">
         <v>2.003124653171751</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02557180408304367</v>
+        <v>0.02557180408304366</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,22 +32937,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.045145761518031</v>
+        <v>1.04514576151803</v>
       </c>
       <c r="H26" t="n">
         <v>10.70359903014653</v>
       </c>
       <c r="I26" t="n">
-        <v>40.29298197092392</v>
+        <v>40.29298197092391</v>
       </c>
       <c r="J26" t="n">
-        <v>88.70544007664104</v>
+        <v>88.70544007664103</v>
       </c>
       <c r="K26" t="n">
         <v>132.9464601616993</v>
       </c>
       <c r="L26" t="n">
-        <v>164.9318397607568</v>
+        <v>164.9318397607567</v>
       </c>
       <c r="M26" t="n">
         <v>183.518450697153</v>
@@ -32970,16 +32970,16 @@
         <v>112.8639843541303</v>
       </c>
       <c r="R26" t="n">
-        <v>65.65213744195705</v>
+        <v>65.65213744195704</v>
       </c>
       <c r="S26" t="n">
-        <v>23.81625904059215</v>
+        <v>23.81625904059214</v>
       </c>
       <c r="T26" t="n">
-        <v>4.575125571045182</v>
+        <v>4.575125571045181</v>
       </c>
       <c r="U26" t="n">
-        <v>0.08361166092144244</v>
+        <v>0.08361166092144243</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5592022817405203</v>
+        <v>0.5592022817405202</v>
       </c>
       <c r="H27" t="n">
-        <v>5.400716773651868</v>
+        <v>5.400716773651867</v>
       </c>
       <c r="I27" t="n">
-        <v>19.25323645466266</v>
+        <v>19.25323645466265</v>
       </c>
       <c r="J27" t="n">
-        <v>52.83235241654627</v>
+        <v>52.83235241654626</v>
       </c>
       <c r="K27" t="n">
-        <v>90.29890529316114</v>
+        <v>90.29890529316111</v>
       </c>
       <c r="L27" t="n">
         <v>121.4180217437038</v>
@@ -33040,16 +33040,16 @@
         <v>145.4391934426803</v>
       </c>
       <c r="O27" t="n">
-        <v>133.048448147272</v>
+        <v>133.0484481472719</v>
       </c>
       <c r="P27" t="n">
         <v>106.7831093965736</v>
       </c>
       <c r="Q27" t="n">
-        <v>71.38168073586012</v>
+        <v>71.3816807358601</v>
       </c>
       <c r="R27" t="n">
-        <v>34.7195942996439</v>
+        <v>34.71959429964389</v>
       </c>
       <c r="S27" t="n">
         <v>10.3869371191715</v>
@@ -33058,7 +33058,7 @@
         <v>2.253977618068149</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03678962379871846</v>
+        <v>0.03678962379871845</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4688164081891333</v>
+        <v>0.4688164081891332</v>
       </c>
       <c r="H28" t="n">
         <v>4.168204065536115</v>
       </c>
       <c r="I28" t="n">
-        <v>14.0985879844514</v>
+        <v>14.09858798445139</v>
       </c>
       <c r="J28" t="n">
-        <v>33.14532005897173</v>
+        <v>33.14532005897172</v>
       </c>
       <c r="K28" t="n">
-        <v>54.46794269688294</v>
+        <v>54.46794269688292</v>
       </c>
       <c r="L28" t="n">
-        <v>69.70021399568262</v>
+        <v>69.7002139956826</v>
       </c>
       <c r="M28" t="n">
-        <v>73.48910296732022</v>
+        <v>73.48910296732021</v>
       </c>
       <c r="N28" t="n">
-        <v>71.74169635497897</v>
+        <v>71.74169635497896</v>
       </c>
       <c r="O28" t="n">
-        <v>66.26506831386044</v>
+        <v>66.26506831386043</v>
       </c>
       <c r="P28" t="n">
-        <v>56.70121358680207</v>
+        <v>56.70121358680206</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.25698123481916</v>
+        <v>39.25698123481915</v>
       </c>
       <c r="R28" t="n">
-        <v>21.0796904991223</v>
+        <v>21.07969049912229</v>
       </c>
       <c r="S28" t="n">
-        <v>8.170191404532439</v>
+        <v>8.170191404532437</v>
       </c>
       <c r="T28" t="n">
         <v>2.003124653171751</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02557180408304367</v>
+        <v>0.02557180408304366</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,22 +33174,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.045145761518031</v>
+        <v>1.04514576151803</v>
       </c>
       <c r="H29" t="n">
         <v>10.70359903014653</v>
       </c>
       <c r="I29" t="n">
-        <v>40.29298197092392</v>
+        <v>40.29298197092391</v>
       </c>
       <c r="J29" t="n">
-        <v>88.70544007664104</v>
+        <v>88.70544007664103</v>
       </c>
       <c r="K29" t="n">
         <v>132.9464601616993</v>
       </c>
       <c r="L29" t="n">
-        <v>164.9318397607568</v>
+        <v>164.9318397607567</v>
       </c>
       <c r="M29" t="n">
         <v>183.518450697153</v>
@@ -33207,16 +33207,16 @@
         <v>112.8639843541303</v>
       </c>
       <c r="R29" t="n">
-        <v>65.65213744195705</v>
+        <v>65.65213744195704</v>
       </c>
       <c r="S29" t="n">
-        <v>23.81625904059215</v>
+        <v>23.81625904059214</v>
       </c>
       <c r="T29" t="n">
-        <v>4.575125571045182</v>
+        <v>4.575125571045181</v>
       </c>
       <c r="U29" t="n">
-        <v>0.08361166092144244</v>
+        <v>0.08361166092144243</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5592022817405203</v>
+        <v>0.5592022817405202</v>
       </c>
       <c r="H30" t="n">
-        <v>5.400716773651868</v>
+        <v>5.400716773651867</v>
       </c>
       <c r="I30" t="n">
-        <v>19.25323645466266</v>
+        <v>19.25323645466265</v>
       </c>
       <c r="J30" t="n">
-        <v>52.83235241654627</v>
+        <v>52.83235241654626</v>
       </c>
       <c r="K30" t="n">
-        <v>90.29890529316114</v>
+        <v>90.29890529316111</v>
       </c>
       <c r="L30" t="n">
         <v>121.4180217437038</v>
@@ -33277,16 +33277,16 @@
         <v>145.4391934426803</v>
       </c>
       <c r="O30" t="n">
-        <v>133.048448147272</v>
+        <v>133.0484481472719</v>
       </c>
       <c r="P30" t="n">
         <v>106.7831093965736</v>
       </c>
       <c r="Q30" t="n">
-        <v>71.38168073586012</v>
+        <v>71.3816807358601</v>
       </c>
       <c r="R30" t="n">
-        <v>34.7195942996439</v>
+        <v>34.71959429964389</v>
       </c>
       <c r="S30" t="n">
         <v>10.3869371191715</v>
@@ -33295,7 +33295,7 @@
         <v>2.253977618068149</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03678962379871846</v>
+        <v>0.03678962379871845</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4688164081891333</v>
+        <v>0.4688164081891332</v>
       </c>
       <c r="H31" t="n">
         <v>4.168204065536115</v>
       </c>
       <c r="I31" t="n">
-        <v>14.0985879844514</v>
+        <v>14.09858798445139</v>
       </c>
       <c r="J31" t="n">
-        <v>33.14532005897173</v>
+        <v>33.14532005897172</v>
       </c>
       <c r="K31" t="n">
-        <v>54.46794269688294</v>
+        <v>54.46794269688292</v>
       </c>
       <c r="L31" t="n">
-        <v>69.70021399568262</v>
+        <v>69.7002139956826</v>
       </c>
       <c r="M31" t="n">
-        <v>73.48910296732022</v>
+        <v>73.48910296732021</v>
       </c>
       <c r="N31" t="n">
-        <v>71.74169635497897</v>
+        <v>71.74169635497896</v>
       </c>
       <c r="O31" t="n">
-        <v>66.26506831386044</v>
+        <v>66.26506831386043</v>
       </c>
       <c r="P31" t="n">
-        <v>56.70121358680207</v>
+        <v>56.70121358680206</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.25698123481916</v>
+        <v>39.25698123481915</v>
       </c>
       <c r="R31" t="n">
-        <v>21.0796904991223</v>
+        <v>21.07969049912229</v>
       </c>
       <c r="S31" t="n">
-        <v>8.170191404532439</v>
+        <v>8.170191404532437</v>
       </c>
       <c r="T31" t="n">
         <v>2.003124653171751</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02557180408304367</v>
+        <v>0.02557180408304366</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,22 +33411,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.045145761518031</v>
+        <v>1.04514576151803</v>
       </c>
       <c r="H32" t="n">
         <v>10.70359903014653</v>
       </c>
       <c r="I32" t="n">
-        <v>40.29298197092392</v>
+        <v>40.29298197092391</v>
       </c>
       <c r="J32" t="n">
-        <v>88.70544007664104</v>
+        <v>88.70544007664103</v>
       </c>
       <c r="K32" t="n">
         <v>132.9464601616993</v>
       </c>
       <c r="L32" t="n">
-        <v>164.9318397607568</v>
+        <v>164.9318397607567</v>
       </c>
       <c r="M32" t="n">
         <v>183.518450697153</v>
@@ -33444,16 +33444,16 @@
         <v>112.8639843541303</v>
       </c>
       <c r="R32" t="n">
-        <v>65.65213744195705</v>
+        <v>65.65213744195704</v>
       </c>
       <c r="S32" t="n">
-        <v>23.81625904059215</v>
+        <v>23.81625904059214</v>
       </c>
       <c r="T32" t="n">
-        <v>4.575125571045182</v>
+        <v>4.575125571045181</v>
       </c>
       <c r="U32" t="n">
-        <v>0.08361166092144244</v>
+        <v>0.08361166092144243</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5592022817405203</v>
+        <v>0.5592022817405202</v>
       </c>
       <c r="H33" t="n">
-        <v>5.400716773651868</v>
+        <v>5.400716773651867</v>
       </c>
       <c r="I33" t="n">
-        <v>19.25323645466266</v>
+        <v>19.25323645466265</v>
       </c>
       <c r="J33" t="n">
-        <v>52.83235241654627</v>
+        <v>52.83235241654626</v>
       </c>
       <c r="K33" t="n">
-        <v>90.29890529316114</v>
+        <v>90.29890529316111</v>
       </c>
       <c r="L33" t="n">
         <v>121.4180217437038</v>
@@ -33514,16 +33514,16 @@
         <v>145.4391934426803</v>
       </c>
       <c r="O33" t="n">
-        <v>133.048448147272</v>
+        <v>133.0484481472719</v>
       </c>
       <c r="P33" t="n">
         <v>106.7831093965736</v>
       </c>
       <c r="Q33" t="n">
-        <v>71.38168073586012</v>
+        <v>71.3816807358601</v>
       </c>
       <c r="R33" t="n">
-        <v>34.7195942996439</v>
+        <v>34.71959429964389</v>
       </c>
       <c r="S33" t="n">
         <v>10.3869371191715</v>
@@ -33532,7 +33532,7 @@
         <v>2.253977618068149</v>
       </c>
       <c r="U33" t="n">
-        <v>0.03678962379871846</v>
+        <v>0.03678962379871845</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4688164081891333</v>
+        <v>0.4688164081891332</v>
       </c>
       <c r="H34" t="n">
         <v>4.168204065536115</v>
       </c>
       <c r="I34" t="n">
-        <v>14.0985879844514</v>
+        <v>14.09858798445139</v>
       </c>
       <c r="J34" t="n">
-        <v>33.14532005897173</v>
+        <v>33.14532005897172</v>
       </c>
       <c r="K34" t="n">
-        <v>54.46794269688294</v>
+        <v>54.46794269688292</v>
       </c>
       <c r="L34" t="n">
-        <v>69.70021399568262</v>
+        <v>69.7002139956826</v>
       </c>
       <c r="M34" t="n">
-        <v>73.48910296732022</v>
+        <v>73.48910296732021</v>
       </c>
       <c r="N34" t="n">
-        <v>71.74169635497897</v>
+        <v>71.74169635497896</v>
       </c>
       <c r="O34" t="n">
-        <v>66.26506831386044</v>
+        <v>66.26506831386043</v>
       </c>
       <c r="P34" t="n">
-        <v>56.70121358680207</v>
+        <v>56.70121358680206</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.25698123481916</v>
+        <v>39.25698123481915</v>
       </c>
       <c r="R34" t="n">
-        <v>21.0796904991223</v>
+        <v>21.07969049912229</v>
       </c>
       <c r="S34" t="n">
-        <v>8.170191404532439</v>
+        <v>8.170191404532437</v>
       </c>
       <c r="T34" t="n">
         <v>2.003124653171751</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02557180408304367</v>
+        <v>0.02557180408304366</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,22 +33648,22 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.045145761518031</v>
+        <v>1.04514576151803</v>
       </c>
       <c r="H35" t="n">
         <v>10.70359903014653</v>
       </c>
       <c r="I35" t="n">
-        <v>40.29298197092392</v>
+        <v>40.29298197092391</v>
       </c>
       <c r="J35" t="n">
-        <v>88.70544007664104</v>
+        <v>88.70544007664103</v>
       </c>
       <c r="K35" t="n">
         <v>132.9464601616993</v>
       </c>
       <c r="L35" t="n">
-        <v>164.9318397607568</v>
+        <v>164.9318397607567</v>
       </c>
       <c r="M35" t="n">
         <v>183.518450697153</v>
@@ -33681,16 +33681,16 @@
         <v>112.8639843541303</v>
       </c>
       <c r="R35" t="n">
-        <v>65.65213744195705</v>
+        <v>65.65213744195704</v>
       </c>
       <c r="S35" t="n">
-        <v>23.81625904059215</v>
+        <v>23.81625904059214</v>
       </c>
       <c r="T35" t="n">
-        <v>4.575125571045182</v>
+        <v>4.575125571045181</v>
       </c>
       <c r="U35" t="n">
-        <v>0.08361166092144244</v>
+        <v>0.08361166092144243</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5592022817405203</v>
+        <v>0.5592022817405202</v>
       </c>
       <c r="H36" t="n">
-        <v>5.400716773651868</v>
+        <v>5.400716773651867</v>
       </c>
       <c r="I36" t="n">
-        <v>19.25323645466266</v>
+        <v>19.25323645466265</v>
       </c>
       <c r="J36" t="n">
-        <v>52.83235241654627</v>
+        <v>52.83235241654626</v>
       </c>
       <c r="K36" t="n">
-        <v>90.29890529316114</v>
+        <v>90.29890529316111</v>
       </c>
       <c r="L36" t="n">
         <v>121.4180217437038</v>
@@ -33751,16 +33751,16 @@
         <v>145.4391934426803</v>
       </c>
       <c r="O36" t="n">
-        <v>133.048448147272</v>
+        <v>133.0484481472719</v>
       </c>
       <c r="P36" t="n">
         <v>106.7831093965736</v>
       </c>
       <c r="Q36" t="n">
-        <v>71.38168073586012</v>
+        <v>71.3816807358601</v>
       </c>
       <c r="R36" t="n">
-        <v>34.7195942996439</v>
+        <v>34.71959429964389</v>
       </c>
       <c r="S36" t="n">
         <v>10.3869371191715</v>
@@ -33769,7 +33769,7 @@
         <v>2.253977618068149</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03678962379871846</v>
+        <v>0.03678962379871845</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4688164081891333</v>
+        <v>0.4688164081891332</v>
       </c>
       <c r="H37" t="n">
         <v>4.168204065536115</v>
       </c>
       <c r="I37" t="n">
-        <v>14.0985879844514</v>
+        <v>14.09858798445139</v>
       </c>
       <c r="J37" t="n">
-        <v>33.14532005897173</v>
+        <v>33.14532005897172</v>
       </c>
       <c r="K37" t="n">
-        <v>54.46794269688294</v>
+        <v>54.46794269688292</v>
       </c>
       <c r="L37" t="n">
-        <v>69.70021399568262</v>
+        <v>69.7002139956826</v>
       </c>
       <c r="M37" t="n">
-        <v>73.48910296732022</v>
+        <v>73.48910296732021</v>
       </c>
       <c r="N37" t="n">
-        <v>71.74169635497897</v>
+        <v>71.74169635497896</v>
       </c>
       <c r="O37" t="n">
-        <v>66.26506831386044</v>
+        <v>66.26506831386043</v>
       </c>
       <c r="P37" t="n">
-        <v>56.70121358680207</v>
+        <v>56.70121358680206</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.25698123481916</v>
+        <v>39.25698123481915</v>
       </c>
       <c r="R37" t="n">
-        <v>21.0796904991223</v>
+        <v>21.07969049912229</v>
       </c>
       <c r="S37" t="n">
-        <v>8.170191404532439</v>
+        <v>8.170191404532437</v>
       </c>
       <c r="T37" t="n">
         <v>2.003124653171751</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02557180408304367</v>
+        <v>0.02557180408304366</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,22 +33885,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.045145761518031</v>
+        <v>1.04514576151803</v>
       </c>
       <c r="H38" t="n">
         <v>10.70359903014653</v>
       </c>
       <c r="I38" t="n">
-        <v>40.29298197092392</v>
+        <v>40.29298197092391</v>
       </c>
       <c r="J38" t="n">
-        <v>88.70544007664104</v>
+        <v>88.70544007664103</v>
       </c>
       <c r="K38" t="n">
         <v>132.9464601616993</v>
       </c>
       <c r="L38" t="n">
-        <v>164.9318397607568</v>
+        <v>164.9318397607567</v>
       </c>
       <c r="M38" t="n">
         <v>183.518450697153</v>
@@ -33918,16 +33918,16 @@
         <v>112.8639843541303</v>
       </c>
       <c r="R38" t="n">
-        <v>65.65213744195705</v>
+        <v>65.65213744195704</v>
       </c>
       <c r="S38" t="n">
-        <v>23.81625904059215</v>
+        <v>23.81625904059214</v>
       </c>
       <c r="T38" t="n">
-        <v>4.575125571045182</v>
+        <v>4.575125571045181</v>
       </c>
       <c r="U38" t="n">
-        <v>0.08361166092144244</v>
+        <v>0.08361166092144243</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5592022817405203</v>
+        <v>0.5592022817405202</v>
       </c>
       <c r="H39" t="n">
-        <v>5.400716773651868</v>
+        <v>5.400716773651867</v>
       </c>
       <c r="I39" t="n">
-        <v>19.25323645466266</v>
+        <v>19.25323645466265</v>
       </c>
       <c r="J39" t="n">
-        <v>52.83235241654627</v>
+        <v>52.83235241654626</v>
       </c>
       <c r="K39" t="n">
-        <v>90.29890529316114</v>
+        <v>90.29890529316111</v>
       </c>
       <c r="L39" t="n">
         <v>121.4180217437038</v>
@@ -33988,16 +33988,16 @@
         <v>145.4391934426803</v>
       </c>
       <c r="O39" t="n">
-        <v>133.048448147272</v>
+        <v>133.0484481472719</v>
       </c>
       <c r="P39" t="n">
         <v>106.7831093965736</v>
       </c>
       <c r="Q39" t="n">
-        <v>71.38168073586012</v>
+        <v>71.3816807358601</v>
       </c>
       <c r="R39" t="n">
-        <v>34.7195942996439</v>
+        <v>34.71959429964389</v>
       </c>
       <c r="S39" t="n">
         <v>10.3869371191715</v>
@@ -34006,7 +34006,7 @@
         <v>2.253977618068149</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03678962379871846</v>
+        <v>0.03678962379871845</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4688164081891333</v>
+        <v>0.4688164081891332</v>
       </c>
       <c r="H40" t="n">
         <v>4.168204065536115</v>
       </c>
       <c r="I40" t="n">
-        <v>14.0985879844514</v>
+        <v>14.09858798445139</v>
       </c>
       <c r="J40" t="n">
-        <v>33.14532005897173</v>
+        <v>33.14532005897172</v>
       </c>
       <c r="K40" t="n">
-        <v>54.46794269688294</v>
+        <v>54.46794269688292</v>
       </c>
       <c r="L40" t="n">
-        <v>69.70021399568262</v>
+        <v>69.7002139956826</v>
       </c>
       <c r="M40" t="n">
-        <v>73.48910296732022</v>
+        <v>73.48910296732021</v>
       </c>
       <c r="N40" t="n">
-        <v>71.74169635497897</v>
+        <v>71.74169635497896</v>
       </c>
       <c r="O40" t="n">
-        <v>66.26506831386044</v>
+        <v>66.26506831386043</v>
       </c>
       <c r="P40" t="n">
-        <v>56.70121358680207</v>
+        <v>56.70121358680206</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.25698123481916</v>
+        <v>39.25698123481915</v>
       </c>
       <c r="R40" t="n">
-        <v>21.0796904991223</v>
+        <v>21.07969049912229</v>
       </c>
       <c r="S40" t="n">
-        <v>8.170191404532439</v>
+        <v>8.170191404532437</v>
       </c>
       <c r="T40" t="n">
         <v>2.003124653171751</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02557180408304367</v>
+        <v>0.02557180408304366</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,22 +34122,22 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.045145761518031</v>
+        <v>1.04514576151803</v>
       </c>
       <c r="H41" t="n">
         <v>10.70359903014653</v>
       </c>
       <c r="I41" t="n">
-        <v>40.29298197092392</v>
+        <v>40.29298197092391</v>
       </c>
       <c r="J41" t="n">
-        <v>88.70544007664104</v>
+        <v>88.70544007664103</v>
       </c>
       <c r="K41" t="n">
         <v>132.9464601616993</v>
       </c>
       <c r="L41" t="n">
-        <v>164.9318397607568</v>
+        <v>164.9318397607567</v>
       </c>
       <c r="M41" t="n">
         <v>183.518450697153</v>
@@ -34155,16 +34155,16 @@
         <v>112.8639843541303</v>
       </c>
       <c r="R41" t="n">
-        <v>65.65213744195705</v>
+        <v>65.65213744195704</v>
       </c>
       <c r="S41" t="n">
-        <v>23.81625904059215</v>
+        <v>23.81625904059214</v>
       </c>
       <c r="T41" t="n">
-        <v>4.575125571045182</v>
+        <v>4.575125571045181</v>
       </c>
       <c r="U41" t="n">
-        <v>0.08361166092144244</v>
+        <v>0.08361166092144243</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5592022817405203</v>
+        <v>0.5592022817405202</v>
       </c>
       <c r="H42" t="n">
-        <v>5.400716773651868</v>
+        <v>5.400716773651867</v>
       </c>
       <c r="I42" t="n">
-        <v>19.25323645466266</v>
+        <v>19.25323645466265</v>
       </c>
       <c r="J42" t="n">
-        <v>52.83235241654627</v>
+        <v>52.83235241654626</v>
       </c>
       <c r="K42" t="n">
-        <v>90.29890529316114</v>
+        <v>90.29890529316111</v>
       </c>
       <c r="L42" t="n">
         <v>121.4180217437038</v>
@@ -34225,16 +34225,16 @@
         <v>145.4391934426803</v>
       </c>
       <c r="O42" t="n">
-        <v>133.048448147272</v>
+        <v>133.0484481472719</v>
       </c>
       <c r="P42" t="n">
         <v>106.7831093965736</v>
       </c>
       <c r="Q42" t="n">
-        <v>71.38168073586012</v>
+        <v>71.3816807358601</v>
       </c>
       <c r="R42" t="n">
-        <v>34.7195942996439</v>
+        <v>34.71959429964389</v>
       </c>
       <c r="S42" t="n">
         <v>10.3869371191715</v>
@@ -34243,7 +34243,7 @@
         <v>2.253977618068149</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03678962379871846</v>
+        <v>0.03678962379871845</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4688164081891333</v>
+        <v>0.4688164081891332</v>
       </c>
       <c r="H43" t="n">
         <v>4.168204065536115</v>
       </c>
       <c r="I43" t="n">
-        <v>14.0985879844514</v>
+        <v>14.09858798445139</v>
       </c>
       <c r="J43" t="n">
-        <v>33.14532005897173</v>
+        <v>33.14532005897172</v>
       </c>
       <c r="K43" t="n">
-        <v>54.46794269688294</v>
+        <v>54.46794269688292</v>
       </c>
       <c r="L43" t="n">
-        <v>69.70021399568262</v>
+        <v>69.7002139956826</v>
       </c>
       <c r="M43" t="n">
-        <v>73.48910296732022</v>
+        <v>73.48910296732021</v>
       </c>
       <c r="N43" t="n">
-        <v>71.74169635497897</v>
+        <v>71.74169635497896</v>
       </c>
       <c r="O43" t="n">
-        <v>66.26506831386044</v>
+        <v>66.26506831386043</v>
       </c>
       <c r="P43" t="n">
-        <v>56.70121358680207</v>
+        <v>56.70121358680206</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.25698123481916</v>
+        <v>39.25698123481915</v>
       </c>
       <c r="R43" t="n">
-        <v>21.0796904991223</v>
+        <v>21.07969049912229</v>
       </c>
       <c r="S43" t="n">
-        <v>8.170191404532439</v>
+        <v>8.170191404532437</v>
       </c>
       <c r="T43" t="n">
         <v>2.003124653171751</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02557180408304367</v>
+        <v>0.02557180408304366</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,22 +34359,22 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.045145761518031</v>
+        <v>1.04514576151803</v>
       </c>
       <c r="H44" t="n">
         <v>10.70359903014653</v>
       </c>
       <c r="I44" t="n">
-        <v>40.29298197092392</v>
+        <v>40.29298197092391</v>
       </c>
       <c r="J44" t="n">
-        <v>88.70544007664104</v>
+        <v>88.70544007664103</v>
       </c>
       <c r="K44" t="n">
         <v>132.9464601616993</v>
       </c>
       <c r="L44" t="n">
-        <v>164.9318397607568</v>
+        <v>164.9318397607567</v>
       </c>
       <c r="M44" t="n">
         <v>183.518450697153</v>
@@ -34392,16 +34392,16 @@
         <v>112.8639843541303</v>
       </c>
       <c r="R44" t="n">
-        <v>65.65213744195705</v>
+        <v>65.65213744195704</v>
       </c>
       <c r="S44" t="n">
-        <v>23.81625904059215</v>
+        <v>23.81625904059214</v>
       </c>
       <c r="T44" t="n">
-        <v>4.575125571045182</v>
+        <v>4.575125571045181</v>
       </c>
       <c r="U44" t="n">
-        <v>0.08361166092144244</v>
+        <v>0.08361166092144243</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5592022817405203</v>
+        <v>0.5592022817405202</v>
       </c>
       <c r="H45" t="n">
-        <v>5.400716773651868</v>
+        <v>5.400716773651867</v>
       </c>
       <c r="I45" t="n">
-        <v>19.25323645466266</v>
+        <v>19.25323645466265</v>
       </c>
       <c r="J45" t="n">
-        <v>52.83235241654627</v>
+        <v>52.83235241654626</v>
       </c>
       <c r="K45" t="n">
-        <v>90.29890529316114</v>
+        <v>90.29890529316111</v>
       </c>
       <c r="L45" t="n">
         <v>121.4180217437038</v>
@@ -34462,16 +34462,16 @@
         <v>145.4391934426803</v>
       </c>
       <c r="O45" t="n">
-        <v>133.048448147272</v>
+        <v>133.0484481472719</v>
       </c>
       <c r="P45" t="n">
         <v>106.7831093965736</v>
       </c>
       <c r="Q45" t="n">
-        <v>71.38168073586012</v>
+        <v>71.3816807358601</v>
       </c>
       <c r="R45" t="n">
-        <v>34.7195942996439</v>
+        <v>34.71959429964389</v>
       </c>
       <c r="S45" t="n">
         <v>10.3869371191715</v>
@@ -34480,7 +34480,7 @@
         <v>2.253977618068149</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03678962379871846</v>
+        <v>0.03678962379871845</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4688164081891333</v>
+        <v>0.4688164081891332</v>
       </c>
       <c r="H46" t="n">
         <v>4.168204065536115</v>
       </c>
       <c r="I46" t="n">
-        <v>14.0985879844514</v>
+        <v>14.09858798445139</v>
       </c>
       <c r="J46" t="n">
-        <v>33.14532005897173</v>
+        <v>33.14532005897172</v>
       </c>
       <c r="K46" t="n">
-        <v>54.46794269688294</v>
+        <v>54.46794269688292</v>
       </c>
       <c r="L46" t="n">
-        <v>69.70021399568262</v>
+        <v>69.7002139956826</v>
       </c>
       <c r="M46" t="n">
-        <v>73.48910296732022</v>
+        <v>73.48910296732021</v>
       </c>
       <c r="N46" t="n">
-        <v>71.74169635497897</v>
+        <v>71.74169635497896</v>
       </c>
       <c r="O46" t="n">
-        <v>66.26506831386044</v>
+        <v>66.26506831386043</v>
       </c>
       <c r="P46" t="n">
-        <v>56.70121358680207</v>
+        <v>56.70121358680206</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.25698123481916</v>
+        <v>39.25698123481915</v>
       </c>
       <c r="R46" t="n">
-        <v>21.0796904991223</v>
+        <v>21.07969049912229</v>
       </c>
       <c r="S46" t="n">
-        <v>8.170191404532439</v>
+        <v>8.170191404532437</v>
       </c>
       <c r="T46" t="n">
         <v>2.003124653171751</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02557180408304367</v>
+        <v>0.02557180408304366</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34783,7 +34783,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34862,16 +34862,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L5" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>407.1525905495951</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35020,7 +35020,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>88.52591951400984</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
@@ -35187,7 +35187,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35196,7 +35196,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>226.6534083847603</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35409,13 +35409,13 @@
         <v>39.88036049179252</v>
       </c>
       <c r="J11" t="n">
-        <v>88.70544007664105</v>
+        <v>88.70544007664103</v>
       </c>
       <c r="K11" t="n">
-        <v>754.3679524914176</v>
+        <v>754.3679524914177</v>
       </c>
       <c r="L11" t="n">
-        <v>754.3679524914178</v>
+        <v>506.2457628385644</v>
       </c>
       <c r="M11" t="n">
         <v>183.518450697153</v>
@@ -35427,10 +35427,10 @@
         <v>176.0953029259713</v>
       </c>
       <c r="P11" t="n">
-        <v>150.293266938495</v>
+        <v>150.2932669384948</v>
       </c>
       <c r="Q11" t="n">
-        <v>416.7607704170287</v>
+        <v>664.8829600698823</v>
       </c>
       <c r="R11" t="n">
         <v>236.5148291117116</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>19.25323645466266</v>
+        <v>45.58017904098345</v>
       </c>
       <c r="J12" t="n">
-        <v>52.83235241654629</v>
+        <v>380.6690443016092</v>
       </c>
       <c r="K12" t="n">
-        <v>186.8745362558502</v>
+        <v>90.29890529316117</v>
       </c>
       <c r="L12" t="n">
         <v>121.4180217437038</v>
@@ -35506,13 +35506,13 @@
         <v>133.048448147272</v>
       </c>
       <c r="P12" t="n">
-        <v>754.3679524914177</v>
+        <v>106.7831093965735</v>
       </c>
       <c r="Q12" t="n">
-        <v>71.38168073586007</v>
+        <v>343.0221788125755</v>
       </c>
       <c r="R12" t="n">
-        <v>34.71959429964386</v>
+        <v>153.0759358090779</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35576,7 +35576,7 @@
         <v>492.1344380037241</v>
       </c>
       <c r="M13" t="n">
-        <v>537.6142213318788</v>
+        <v>416.7484638029225</v>
       </c>
       <c r="N13" t="n">
         <v>518.4677601505796</v>
@@ -35588,7 +35588,7 @@
         <v>407.7182782033087</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.2829154880169</v>
+        <v>209.1486730169731</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>39.88036049179252</v>
       </c>
       <c r="J14" t="n">
-        <v>88.70544007664105</v>
+        <v>528.3566395240329</v>
       </c>
       <c r="K14" t="n">
         <v>754.3679524914176</v>
       </c>
       <c r="L14" t="n">
-        <v>164.9318397607567</v>
+        <v>618.6135391069245</v>
       </c>
       <c r="M14" t="n">
         <v>183.518450697153</v>
       </c>
       <c r="N14" t="n">
-        <v>186.4879710920661</v>
+        <v>186.4879710920659</v>
       </c>
       <c r="O14" t="n">
-        <v>754.3679524914178</v>
+        <v>176.0953029259713</v>
       </c>
       <c r="P14" t="n">
         <v>150.293266938495</v>
       </c>
       <c r="Q14" t="n">
-        <v>598.7869252519977</v>
+        <v>112.8639843541305</v>
       </c>
       <c r="R14" t="n">
-        <v>65.65213744195717</v>
+        <v>236.5148291117116</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>45.58017904098347</v>
+        <v>45.58017904098345</v>
       </c>
       <c r="J15" t="n">
-        <v>123.0810407929145</v>
+        <v>380.6690443016092</v>
       </c>
       <c r="K15" t="n">
-        <v>90.29890529316114</v>
+        <v>90.29890529316117</v>
       </c>
       <c r="L15" t="n">
         <v>121.4180217437038</v>
@@ -35743,13 +35743,13 @@
         <v>133.048448147272</v>
       </c>
       <c r="P15" t="n">
-        <v>754.3679524914177</v>
+        <v>106.7831093965735</v>
       </c>
       <c r="Q15" t="n">
-        <v>71.38168073586007</v>
+        <v>343.0221788125755</v>
       </c>
       <c r="R15" t="n">
-        <v>34.71959429964386</v>
+        <v>153.0759358090779</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35889,10 +35889,10 @@
         <v>132.9464601616993</v>
       </c>
       <c r="L17" t="n">
-        <v>164.9318397607568</v>
+        <v>164.9318397607567</v>
       </c>
       <c r="M17" t="n">
-        <v>183.518450697153</v>
+        <v>183.5184506971531</v>
       </c>
       <c r="N17" t="n">
         <v>186.4879710920661</v>
@@ -35901,10 +35901,10 @@
         <v>176.0953029259713</v>
       </c>
       <c r="P17" t="n">
-        <v>673.3774828986284</v>
+        <v>673.3774828986288</v>
       </c>
       <c r="Q17" t="n">
-        <v>664.8829600698828</v>
+        <v>664.8829600698823</v>
       </c>
       <c r="R17" t="n">
         <v>236.5148291117116</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>19.25323645466266</v>
+        <v>45.58017904098345</v>
       </c>
       <c r="J18" t="n">
-        <v>52.83235241654629</v>
+        <v>52.83235241654626</v>
       </c>
       <c r="K18" t="n">
-        <v>90.29890529316114</v>
+        <v>90.29890529316111</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9936527063929</v>
+        <v>121.4180217437037</v>
       </c>
       <c r="M18" t="n">
         <v>141.6891044567976</v>
@@ -35977,16 +35977,16 @@
         <v>145.4391934426803</v>
       </c>
       <c r="O18" t="n">
-        <v>133.048448147272</v>
+        <v>133.0484481472719</v>
       </c>
       <c r="P18" t="n">
-        <v>754.3679524914177</v>
+        <v>160.0593512451444</v>
       </c>
       <c r="Q18" t="n">
-        <v>71.38168073586007</v>
+        <v>617.5826288490678</v>
       </c>
       <c r="R18" t="n">
-        <v>34.71959429964386</v>
+        <v>153.0759358090779</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>132.9464601616993</v>
       </c>
       <c r="L20" t="n">
-        <v>164.9318397607568</v>
+        <v>164.9318397607567</v>
       </c>
       <c r="M20" t="n">
-        <v>183.518450697153</v>
+        <v>183.5184506971531</v>
       </c>
       <c r="N20" t="n">
         <v>186.4879710920661</v>
       </c>
       <c r="O20" t="n">
-        <v>265.9675250029368</v>
+        <v>176.0953029259713</v>
       </c>
       <c r="P20" t="n">
-        <v>754.3679524914178</v>
+        <v>673.3774828986288</v>
       </c>
       <c r="Q20" t="n">
         <v>664.8829600698823</v>
       </c>
       <c r="R20" t="n">
-        <v>65.65213744195717</v>
+        <v>236.5148291117116</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>45.58017904098347</v>
+        <v>45.58017904098345</v>
       </c>
       <c r="J21" t="n">
-        <v>380.6690443016093</v>
+        <v>380.6690443016092</v>
       </c>
       <c r="K21" t="n">
         <v>90.29890529316117</v>
@@ -36208,22 +36208,22 @@
         <v>121.4180217437038</v>
       </c>
       <c r="M21" t="n">
-        <v>141.6891044567974</v>
+        <v>141.6891044567976</v>
       </c>
       <c r="N21" t="n">
         <v>145.4391934426803</v>
       </c>
       <c r="O21" t="n">
-        <v>133.0484481472718</v>
+        <v>133.048448147272</v>
       </c>
       <c r="P21" t="n">
-        <v>106.7831093965738</v>
+        <v>106.7831093965735</v>
       </c>
       <c r="Q21" t="n">
-        <v>343.022178812575</v>
+        <v>343.0221788125755</v>
       </c>
       <c r="R21" t="n">
-        <v>153.0759358090781</v>
+        <v>153.0759358090779</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>120.5995474980524</v>
       </c>
       <c r="K22" t="n">
-        <v>332.0017351929795</v>
+        <v>211.1359776640231</v>
       </c>
       <c r="L22" t="n">
         <v>492.1344380037241</v>
@@ -36290,7 +36290,7 @@
         <v>537.6142213318789</v>
       </c>
       <c r="N22" t="n">
-        <v>518.4677601505794</v>
+        <v>518.4677601505796</v>
       </c>
       <c r="O22" t="n">
         <v>490.1734008651547</v>
@@ -36299,7 +36299,7 @@
         <v>407.7182782033087</v>
       </c>
       <c r="Q22" t="n">
-        <v>88.2829154880169</v>
+        <v>209.1486730169731</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,16 +36360,16 @@
         <v>528.3566395240327</v>
       </c>
       <c r="K23" t="n">
-        <v>975.7245328467275</v>
+        <v>862.2149460675582</v>
       </c>
       <c r="L23" t="n">
-        <v>603.4412286973384</v>
+        <v>164.9318397607567</v>
       </c>
       <c r="M23" t="n">
-        <v>183.5184506971532</v>
+        <v>183.518450697153</v>
       </c>
       <c r="N23" t="n">
-        <v>186.4879710920663</v>
+        <v>186.4879710920661</v>
       </c>
       <c r="O23" t="n">
         <v>1166.175774209109</v>
@@ -36378,7 +36378,7 @@
         <v>986.9699081843496</v>
       </c>
       <c r="Q23" t="n">
-        <v>112.8639843541305</v>
+        <v>664.8829600698828</v>
       </c>
       <c r="R23" t="n">
         <v>236.5148291117112</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>45.58017904098345</v>
+        <v>45.58017904098347</v>
       </c>
       <c r="J24" t="n">
         <v>380.6690443016092</v>
       </c>
       <c r="K24" t="n">
-        <v>90.29890529316117</v>
+        <v>90.29890529316106</v>
       </c>
       <c r="L24" t="n">
         <v>121.4180217437038</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.14532005897173</v>
+        <v>120.5995474980524</v>
       </c>
       <c r="K25" t="n">
         <v>332.0017351929795</v>
       </c>
       <c r="L25" t="n">
-        <v>492.1344380037241</v>
+        <v>492.134438003724</v>
       </c>
       <c r="M25" t="n">
         <v>537.614221331879</v>
@@ -36536,7 +36536,7 @@
         <v>407.7182782033087</v>
       </c>
       <c r="Q25" t="n">
-        <v>175.737142927097</v>
+        <v>88.28291548801644</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,22 +36600,22 @@
         <v>975.7245328467276</v>
       </c>
       <c r="L26" t="n">
-        <v>164.9318397607567</v>
+        <v>315.5134754137946</v>
       </c>
       <c r="M26" t="n">
-        <v>183.518450697153</v>
+        <v>183.5184506971527</v>
       </c>
       <c r="N26" t="n">
         <v>186.4879710920663</v>
       </c>
       <c r="O26" t="n">
-        <v>326.6769385790076</v>
+        <v>176.0953029259713</v>
       </c>
       <c r="P26" t="n">
         <v>986.9699081843496</v>
       </c>
       <c r="Q26" t="n">
-        <v>664.8829600698828</v>
+        <v>664.8829600698823</v>
       </c>
       <c r="R26" t="n">
         <v>236.5148291117112</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>45.58017904098347</v>
+        <v>45.58017904098345</v>
       </c>
       <c r="J27" t="n">
         <v>380.6690443016092</v>
       </c>
       <c r="K27" t="n">
-        <v>90.29890529316117</v>
+        <v>90.29890529316106</v>
       </c>
       <c r="L27" t="n">
         <v>121.4180217437038</v>
@@ -36688,16 +36688,16 @@
         <v>145.4391934426803</v>
       </c>
       <c r="O27" t="n">
-        <v>133.0484481472719</v>
+        <v>133.048448147272</v>
       </c>
       <c r="P27" t="n">
         <v>106.7831093965735</v>
       </c>
       <c r="Q27" t="n">
-        <v>343.022178812575</v>
+        <v>343.0221788125752</v>
       </c>
       <c r="R27" t="n">
-        <v>153.0759358090781</v>
+        <v>153.0759358090779</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36770,10 +36770,10 @@
         <v>490.1734008651547</v>
       </c>
       <c r="P28" t="n">
-        <v>286.852520674352</v>
+        <v>407.7182782033087</v>
       </c>
       <c r="Q28" t="n">
-        <v>209.1486730169731</v>
+        <v>88.28291548801644</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>39.88036049179252</v>
       </c>
       <c r="J29" t="n">
-        <v>528.3566395240329</v>
+        <v>88.70544007664103</v>
       </c>
       <c r="K29" t="n">
-        <v>975.7245328467276</v>
+        <v>247.4345672357604</v>
       </c>
       <c r="L29" t="n">
-        <v>315.513475413793</v>
+        <v>164.9318397607567</v>
       </c>
       <c r="M29" t="n">
-        <v>183.518450697153</v>
+        <v>1084.440047462731</v>
       </c>
       <c r="N29" t="n">
-        <v>186.4879710920663</v>
+        <v>1084.440047462731</v>
       </c>
       <c r="O29" t="n">
-        <v>176.0953029259713</v>
+        <v>1084.440047462731</v>
       </c>
       <c r="P29" t="n">
-        <v>986.9699081843496</v>
+        <v>150.293266938495</v>
       </c>
       <c r="Q29" t="n">
-        <v>664.8829600698828</v>
+        <v>112.8639843541305</v>
       </c>
       <c r="R29" t="n">
         <v>236.5148291117112</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>19.25323645466266</v>
+        <v>45.58017904098345</v>
       </c>
       <c r="J30" t="n">
         <v>380.6690443016092</v>
       </c>
       <c r="K30" t="n">
-        <v>90.29890529316111</v>
+        <v>361.9394033698763</v>
       </c>
       <c r="L30" t="n">
         <v>121.4180217437038</v>
       </c>
       <c r="M30" t="n">
-        <v>141.6891044567976</v>
+        <v>141.6891044567975</v>
       </c>
       <c r="N30" t="n">
         <v>145.4391934426803</v>
       </c>
       <c r="O30" t="n">
-        <v>133.0484481472719</v>
+        <v>133.048448147272</v>
       </c>
       <c r="P30" t="n">
         <v>106.7831093965735</v>
       </c>
       <c r="Q30" t="n">
-        <v>487.7054629083302</v>
+        <v>71.38168073586007</v>
       </c>
       <c r="R30" t="n">
-        <v>34.71959429964386</v>
+        <v>153.0759358090779</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.14532005897172</v>
+        <v>120.5995474980524</v>
       </c>
       <c r="K31" t="n">
-        <v>332.0017351929794</v>
+        <v>332.0017351929795</v>
       </c>
       <c r="L31" t="n">
         <v>492.134438003724</v>
@@ -37007,10 +37007,10 @@
         <v>490.1734008651547</v>
       </c>
       <c r="P31" t="n">
-        <v>407.7182782033092</v>
+        <v>407.7182782033087</v>
       </c>
       <c r="Q31" t="n">
-        <v>175.7371429270961</v>
+        <v>88.28291548801644</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,13 +37068,13 @@
         <v>39.88036049179252</v>
       </c>
       <c r="J32" t="n">
-        <v>528.3566395240327</v>
+        <v>528.3566395240329</v>
       </c>
       <c r="K32" t="n">
         <v>132.9464601616993</v>
       </c>
       <c r="L32" t="n">
-        <v>164.9318397607568</v>
+        <v>164.9318397607567</v>
       </c>
       <c r="M32" t="n">
         <v>183.518450697153</v>
@@ -37083,13 +37083,13 @@
         <v>186.4879710920661</v>
       </c>
       <c r="O32" t="n">
-        <v>352.1538691299829</v>
+        <v>352.1538691299841</v>
       </c>
       <c r="P32" t="n">
-        <v>841.2206983749784</v>
+        <v>841.2206983749786</v>
       </c>
       <c r="Q32" t="n">
-        <v>664.8829600698828</v>
+        <v>664.8829600698823</v>
       </c>
       <c r="R32" t="n">
         <v>236.5148291117116</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>45.58017904098347</v>
+        <v>45.58017904098345</v>
       </c>
       <c r="J33" t="n">
         <v>380.6690443016092</v>
       </c>
       <c r="K33" t="n">
-        <v>90.29890529316111</v>
+        <v>361.9394033698762</v>
       </c>
       <c r="L33" t="n">
         <v>121.4180217437038</v>
@@ -37168,7 +37168,7 @@
         <v>106.7831093965735</v>
       </c>
       <c r="Q33" t="n">
-        <v>343.0221788125752</v>
+        <v>71.38168073586007</v>
       </c>
       <c r="R33" t="n">
         <v>153.0759358090779</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.14532005897173</v>
+        <v>120.5995474980524</v>
       </c>
       <c r="K34" t="n">
         <v>332.0017351929795</v>
@@ -37235,7 +37235,7 @@
         <v>492.1344380037241</v>
       </c>
       <c r="M34" t="n">
-        <v>537.6142213318788</v>
+        <v>416.7484638029224</v>
       </c>
       <c r="N34" t="n">
         <v>518.4677601505796</v>
@@ -37244,7 +37244,7 @@
         <v>490.1734008651547</v>
       </c>
       <c r="P34" t="n">
-        <v>374.3067481134331</v>
+        <v>407.7182782033087</v>
       </c>
       <c r="Q34" t="n">
         <v>209.1486730169731</v>
@@ -37311,10 +37311,10 @@
         <v>132.9464601616993</v>
       </c>
       <c r="L35" t="n">
-        <v>164.9318397607568</v>
+        <v>164.9318397607567</v>
       </c>
       <c r="M35" t="n">
-        <v>183.518450697153</v>
+        <v>183.5184506971531</v>
       </c>
       <c r="N35" t="n">
         <v>186.4879710920661</v>
@@ -37323,10 +37323,10 @@
         <v>176.0953029259713</v>
       </c>
       <c r="P35" t="n">
-        <v>673.3774828986284</v>
+        <v>673.3774828986288</v>
       </c>
       <c r="Q35" t="n">
-        <v>664.8829600698828</v>
+        <v>664.8829600698823</v>
       </c>
       <c r="R35" t="n">
         <v>236.5148291117116</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>45.58017904098347</v>
+        <v>45.58017904098345</v>
       </c>
       <c r="J36" t="n">
         <v>380.6690443016092</v>
       </c>
       <c r="K36" t="n">
-        <v>361.9394033698763</v>
+        <v>361.9394033698766</v>
       </c>
       <c r="L36" t="n">
         <v>121.4180217437038</v>
@@ -37408,7 +37408,7 @@
         <v>71.38168073586007</v>
       </c>
       <c r="R36" t="n">
-        <v>153.0759358090781</v>
+        <v>153.0759358090779</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37472,7 +37472,7 @@
         <v>492.1344380037241</v>
       </c>
       <c r="M37" t="n">
-        <v>537.614221331879</v>
+        <v>537.6142213318788</v>
       </c>
       <c r="N37" t="n">
         <v>518.4677601505796</v>
@@ -37484,7 +37484,7 @@
         <v>407.7182782033087</v>
       </c>
       <c r="Q37" t="n">
-        <v>88.28291548801644</v>
+        <v>88.2829154880169</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,22 +37548,22 @@
         <v>132.9464601616993</v>
       </c>
       <c r="L38" t="n">
-        <v>164.9318397607568</v>
+        <v>164.9318397607567</v>
       </c>
       <c r="M38" t="n">
-        <v>183.518450697153</v>
+        <v>183.5184506971531</v>
       </c>
       <c r="N38" t="n">
         <v>186.4879710920661</v>
       </c>
       <c r="O38" t="n">
-        <v>647.1238090489342</v>
+        <v>176.0953029259713</v>
       </c>
       <c r="P38" t="n">
-        <v>754.3679524914178</v>
+        <v>673.3774828986288</v>
       </c>
       <c r="Q38" t="n">
-        <v>112.8639843541305</v>
+        <v>664.8829600698823</v>
       </c>
       <c r="R38" t="n">
         <v>236.5148291117116</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>45.58017904098347</v>
+        <v>45.58017904098345</v>
       </c>
       <c r="J39" t="n">
-        <v>380.6690443016093</v>
+        <v>380.6690443016092</v>
       </c>
       <c r="K39" t="n">
-        <v>361.9394033698759</v>
+        <v>361.9394033698766</v>
       </c>
       <c r="L39" t="n">
         <v>121.4180217437038</v>
       </c>
       <c r="M39" t="n">
-        <v>141.6891044567974</v>
+        <v>141.6891044567976</v>
       </c>
       <c r="N39" t="n">
         <v>145.4391934426803</v>
       </c>
       <c r="O39" t="n">
-        <v>133.0484481472718</v>
+        <v>133.048448147272</v>
       </c>
       <c r="P39" t="n">
-        <v>106.7831093965738</v>
+        <v>106.7831093965735</v>
       </c>
       <c r="Q39" t="n">
-        <v>71.3816807358603</v>
+        <v>71.38168073586007</v>
       </c>
       <c r="R39" t="n">
-        <v>153.0759358090781</v>
+        <v>153.0759358090779</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,10 +37785,10 @@
         <v>132.9464601616993</v>
       </c>
       <c r="L41" t="n">
-        <v>164.9318397607568</v>
+        <v>164.9318397607567</v>
       </c>
       <c r="M41" t="n">
-        <v>183.518450697153</v>
+        <v>183.5184506971531</v>
       </c>
       <c r="N41" t="n">
         <v>186.4879710920661</v>
@@ -37797,10 +37797,10 @@
         <v>176.0953029259713</v>
       </c>
       <c r="P41" t="n">
-        <v>673.3774828986284</v>
+        <v>673.3774828986288</v>
       </c>
       <c r="Q41" t="n">
-        <v>664.8829600698828</v>
+        <v>664.8829600698823</v>
       </c>
       <c r="R41" t="n">
         <v>236.5148291117116</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>45.58017904098347</v>
+        <v>45.58017904098345</v>
       </c>
       <c r="J42" t="n">
         <v>380.6690443016092</v>
       </c>
       <c r="K42" t="n">
-        <v>361.9394033698763</v>
+        <v>90.29890529316117</v>
       </c>
       <c r="L42" t="n">
         <v>121.4180217437038</v>
@@ -37879,10 +37879,10 @@
         <v>106.7831093965735</v>
       </c>
       <c r="Q42" t="n">
-        <v>71.38168073586007</v>
+        <v>343.0221788125755</v>
       </c>
       <c r="R42" t="n">
-        <v>153.0759358090781</v>
+        <v>153.0759358090779</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>120.5995474980524</v>
       </c>
       <c r="K43" t="n">
-        <v>332.0017351929795</v>
+        <v>211.1359776640231</v>
       </c>
       <c r="L43" t="n">
         <v>492.1344380037241</v>
@@ -37949,7 +37949,7 @@
         <v>537.6142213318789</v>
       </c>
       <c r="N43" t="n">
-        <v>518.4677601505794</v>
+        <v>518.4677601505796</v>
       </c>
       <c r="O43" t="n">
         <v>490.1734008651547</v>
@@ -37958,7 +37958,7 @@
         <v>407.7182782033087</v>
       </c>
       <c r="Q43" t="n">
-        <v>88.2829154880169</v>
+        <v>209.1486730169731</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>528.3566395240329</v>
       </c>
       <c r="K44" t="n">
-        <v>656.030676121833</v>
+        <v>132.9464601616993</v>
       </c>
       <c r="L44" t="n">
         <v>164.9318397607567</v>
       </c>
       <c r="M44" t="n">
-        <v>183.518450697153</v>
+        <v>183.5184506971531</v>
       </c>
       <c r="N44" t="n">
         <v>186.4879710920661</v>
@@ -38034,10 +38034,10 @@
         <v>176.0953029259713</v>
       </c>
       <c r="P44" t="n">
-        <v>150.2932669384948</v>
+        <v>673.3774828986288</v>
       </c>
       <c r="Q44" t="n">
-        <v>664.8829600698828</v>
+        <v>664.8829600698823</v>
       </c>
       <c r="R44" t="n">
         <v>236.5148291117116</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>45.58017904098347</v>
+        <v>45.58017904098345</v>
       </c>
       <c r="J45" t="n">
         <v>380.6690443016092</v>
       </c>
       <c r="K45" t="n">
-        <v>90.29890529316111</v>
+        <v>361.9394033698766</v>
       </c>
       <c r="L45" t="n">
         <v>121.4180217437038</v>
@@ -38116,10 +38116,10 @@
         <v>106.7831093965735</v>
       </c>
       <c r="Q45" t="n">
-        <v>343.0221788125752</v>
+        <v>71.38168073586007</v>
       </c>
       <c r="R45" t="n">
-        <v>153.0759358090781</v>
+        <v>153.0759358090779</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,10 +38177,10 @@
         <v>120.5995474980524</v>
       </c>
       <c r="K46" t="n">
-        <v>332.0017351929795</v>
+        <v>211.1359776640231</v>
       </c>
       <c r="L46" t="n">
-        <v>371.2686804747677</v>
+        <v>492.1344380037241</v>
       </c>
       <c r="M46" t="n">
         <v>537.6142213318789</v>
